--- a/kattungar.xlsx
+++ b/kattungar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\git\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87BC8EB-AFB7-402D-8623-A53CA83B9CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00973C61-D1B6-4716-BFE9-B4C6F46F8EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{36296AD2-3383-4412-B526-17245D0827CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Sp</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>G_g</t>
+  </si>
+  <si>
+    <t>lite ljudligare gnisslanden</t>
+  </si>
+  <si>
+    <t>SV_t</t>
+  </si>
+  <si>
+    <t>GV_t</t>
+  </si>
+  <si>
+    <t>Sp_t</t>
+  </si>
+  <si>
+    <t>G_t</t>
   </si>
 </sst>
 </file>
@@ -173,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -225,6 +240,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,10 +319,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$12</c:f>
+              <c:f>Blad1!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -331,17 +348,23 @@
                   <c:v>45390.722222222219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45391.9375</c:v>
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$H$2:$H$12</c:f>
+              <c:f>Blad1!$H$2:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -368,6 +391,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.18285714285714283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21142857142857152</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25714285714285712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,10 +454,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$12</c:f>
+              <c:f>Blad1!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -454,17 +483,23 @@
                   <c:v>45390.722222222219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45391.9375</c:v>
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$I$2:$I$12</c:f>
+              <c:f>Blad1!$I$2:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -491,6 +526,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.16867469879518082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21084337349397586</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24698795180722888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,10 +587,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$12</c:f>
+              <c:f>Blad1!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -575,17 +616,23 @@
                   <c:v>45390.722222222219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45391.9375</c:v>
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$12</c:f>
+              <c:f>Blad1!$J$2:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -612,6 +659,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5185185185185186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57407407407407418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61111111111111116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,10 +716,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$12</c:f>
+              <c:f>Blad1!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -692,17 +745,23 @@
                   <c:v>45390.722222222219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45391.9375</c:v>
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$K$2:$K$12</c:f>
+              <c:f>Blad1!$K$2:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -729,6 +788,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.22360248447204967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27950310559006208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29813664596273282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1054,10 +1119,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$12</c:f>
+              <c:f>Blad1!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1083,17 +1148,23 @@
                   <c:v>45390.722222222219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45391.9375</c:v>
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$12</c:f>
+              <c:f>Blad1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>175</c:v>
                 </c:pt>
@@ -1120,6 +1191,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,10 +1254,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$12</c:f>
+              <c:f>Blad1!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1206,17 +1283,23 @@
                   <c:v>45390.722222222219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45391.9375</c:v>
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$12</c:f>
+              <c:f>Blad1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>166</c:v>
                 </c:pt>
@@ -1243,6 +1326,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,10 +1387,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$12</c:f>
+              <c:f>Blad1!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1327,17 +1416,23 @@
                   <c:v>45390.722222222219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45391.9375</c:v>
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$12</c:f>
+              <c:f>Blad1!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>108</c:v>
                 </c:pt>
@@ -1364,6 +1459,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,10 +1516,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$12</c:f>
+              <c:f>Blad1!$G$2:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1444,17 +1545,23 @@
                   <c:v>45390.722222222219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45391.9375</c:v>
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$12</c:f>
+              <c:f>Blad1!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>161</c:v>
                 </c:pt>
@@ -1481,6 +1588,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,6 +1861,804 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>45388.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45388.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45388.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45389.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45389.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45389.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45390.315972222219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45390.722222222219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$P$2:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2857142857142909E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8212290502793325E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0362694300518172E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.564102564102555E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4999999999999911E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7560975609756184E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4154589371980784E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7735849056603765E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D70C-426A-81A5-E69D9ABF10D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>45388.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45388.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45388.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45389.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45389.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45389.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45390.315972222219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45390.722222222219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$Q$2:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.0240963855421326E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6363636363636376E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9415204678362512E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.8510638297872286E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8248587570621542E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.098901098901095E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7173913043478271E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6455026455026509E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6082474226804218E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9850746268656803E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D70C-426A-81A5-E69D9ABF10D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>45388.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45388.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45388.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45389.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45389.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45389.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45390.315972222219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45390.722222222219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$R$2:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333259E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5470085470085388E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1496062992125928E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8702290076335881E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4285714285714235E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4507042253521236E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5974025974025983E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7974683544303778E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6585365853658569E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3529411764705799E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D70C-426A-81A5-E69D9ABF10D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>45388.458333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45388.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45388.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45389.416666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45389.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45389.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45390.315972222219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45390.722222222219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45390.9375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45391.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45391.770833333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blad1!$S$2:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7267080745341685E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9880239520957446E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10714285714285721</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0752688172043001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6304347826086918E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2085561497326109E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1813471502590858E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5463917525773141E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5685279187817285E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4563106796116498E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D70C-426A-81A5-E69D9ABF10D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1104956511"/>
+        <c:axId val="1104953631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1104956511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy/mm/dd\ hh:mm;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-1800000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1104953631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1104953631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Tillväxt (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1104956511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1828,6 +2739,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2834,20 +3785,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2878,13 +4332,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2907,6 +4361,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060E4777-7C9E-4130-9936-924A4DF3848B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3232,10 +4724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33456F3-4980-430D-BFBA-60DE0169B3D8}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,12 +4736,12 @@
     <col min="2" max="5" width="9.140625" style="4"/>
     <col min="6" max="6" width="29" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="13"/>
+    <col min="8" max="8" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -3295,8 +4787,20 @@
       <c r="O1" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="P1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45388.458333333336</v>
       </c>
@@ -3351,8 +4855,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="P2" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>0</v>
+      </c>
+      <c r="R2" s="21">
+        <v>0</v>
+      </c>
+      <c r="S2" s="21">
+        <v>0</v>
+      </c>
+      <c r="T2" s="21">
+        <v>0</v>
+      </c>
+      <c r="U2" s="21">
+        <v>0</v>
+      </c>
+      <c r="V2" s="21">
+        <v>0</v>
+      </c>
+      <c r="W2" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45388.607638888891</v>
       </c>
@@ -3369,43 +4897,63 @@
         <v>167</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G10" si="2">A3</f>
+        <f t="shared" ref="G3:G12" si="2">A3</f>
         <v>45388.607638888891</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" ref="H3:H10" si="3">B3/B$2-1</f>
+        <f t="shared" ref="H3:H12" si="3">B3/B$2-1</f>
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I10" si="4">C3/C$2-1</f>
+        <f t="shared" ref="I3:I12" si="4">C3/C$2-1</f>
         <v>-6.0240963855421326E-3</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J10" si="5">D3/D$2-1</f>
+        <f t="shared" ref="J3:J12" si="5">D3/D$2-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K10" si="6">E3/E$2-1</f>
+        <f t="shared" ref="K3:K12" si="6">E3/E$2-1</f>
         <v>3.7267080745341685E-2</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:L10" si="7">B3-B$2</f>
+        <f t="shared" ref="L3:L12" si="7">B3-B$2</f>
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M10" si="8">C3-C$2</f>
+        <f t="shared" ref="M3:M12" si="8">C3-C$2</f>
         <v>-1</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N10" si="9">D3-D$2</f>
+        <f t="shared" ref="N3:N12" si="9">D3-D$2</f>
         <v>9</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:O10" si="10">E3-E$2</f>
+        <f t="shared" ref="O3:O12" si="10">E3-E$2</f>
         <v>6</v>
       </c>
+      <c r="P3" s="21">
+        <f>B3/B2-1</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
+        <f>C3/C2-1</f>
+        <v>-6.0240963855421326E-3</v>
+      </c>
+      <c r="R3" s="21">
+        <f t="shared" ref="R3:S3" si="11">D3/D2-1</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="S3" s="21">
+        <f t="shared" si="11"/>
+        <v>3.7267080745341685E-2</v>
+      </c>
+      <c r="T3" s="21">
+        <f>(B3-B2)/(A3-A2)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45388.875</v>
       </c>
@@ -3457,8 +5005,24 @@
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
+      <c r="P4" s="21">
+        <f t="shared" ref="P4:P11" si="12">B4/B3-1</f>
+        <v>2.2857142857142909E-2</v>
+      </c>
+      <c r="Q4" s="21">
+        <f t="shared" ref="Q4:Q11" si="13">C4/C3-1</f>
+        <v>3.6363636363636376E-2</v>
+      </c>
+      <c r="R4" s="21">
+        <f t="shared" ref="R4:R11" si="14">D4/D3-1</f>
+        <v>8.5470085470085388E-2</v>
+      </c>
+      <c r="S4" s="21">
+        <f t="shared" ref="S4:S11" si="15">E4/E3-1</f>
+        <v>5.9880239520957446E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45389.416666666664</v>
       </c>
@@ -3510,8 +5074,24 @@
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
+      <c r="P5" s="21">
+        <f t="shared" si="12"/>
+        <v>7.8212290502793325E-2</v>
+      </c>
+      <c r="Q5" s="21">
+        <f t="shared" si="13"/>
+        <v>9.9415204678362512E-2</v>
+      </c>
+      <c r="R5" s="21">
+        <f t="shared" si="14"/>
+        <v>3.1496062992125928E-2</v>
+      </c>
+      <c r="S5" s="21">
+        <f t="shared" si="15"/>
+        <v>0.10714285714285721</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45389.708333333336</v>
       </c>
@@ -3563,8 +5143,24 @@
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
+      <c r="P6" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21">
+        <f t="shared" si="13"/>
+        <v>-5.8510638297872286E-2</v>
+      </c>
+      <c r="R6" s="21">
+        <f t="shared" si="14"/>
+        <v>6.8702290076335881E-2</v>
+      </c>
+      <c r="S6" s="21">
+        <f t="shared" si="15"/>
+        <v>-1.0752688172043001E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45389.875</v>
       </c>
@@ -3616,8 +5212,24 @@
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
+      <c r="P7" s="21">
+        <f t="shared" si="12"/>
+        <v>1.0362694300518172E-2</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="13"/>
+        <v>2.8248587570621542E-2</v>
+      </c>
+      <c r="R7" s="21">
+        <f t="shared" si="14"/>
+        <v>1.4285714285714235E-2</v>
+      </c>
+      <c r="S7" s="21">
+        <f t="shared" si="15"/>
+        <v>1.6304347826086918E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45390.315972222219</v>
       </c>
@@ -3632,6 +5244,9 @@
       </c>
       <c r="E8" s="4">
         <v>193</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="2"/>
@@ -3669,8 +5284,24 @@
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
+      <c r="P8" s="21">
+        <f t="shared" si="12"/>
+        <v>2.564102564102555E-2</v>
+      </c>
+      <c r="Q8" s="21">
+        <f>C8/C7-1</f>
+        <v>1.098901098901095E-2</v>
+      </c>
+      <c r="R8" s="21">
+        <f t="shared" si="14"/>
+        <v>8.4507042253521236E-2</v>
+      </c>
+      <c r="S8" s="21">
+        <f t="shared" si="15"/>
+        <v>3.2085561497326109E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45390.722222222219</v>
       </c>
@@ -3722,10 +5353,26 @@
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
+      <c r="P9" s="21">
+        <f t="shared" si="12"/>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="Q9" s="21">
+        <f t="shared" si="13"/>
+        <v>2.7173913043478271E-2</v>
+      </c>
+      <c r="R9" s="21">
+        <f t="shared" si="14"/>
+        <v>2.5974025974025983E-2</v>
+      </c>
+      <c r="S9" s="21">
+        <f t="shared" si="15"/>
+        <v>5.1813471502590858E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45391.9375</v>
+        <v>45390.9375</v>
       </c>
       <c r="B10" s="4">
         <v>207</v>
@@ -3741,7 +5388,7 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" si="2"/>
-        <v>45391.9375</v>
+        <v>45390.9375</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="3"/>
@@ -3775,25 +5422,195 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
+      <c r="P10" s="21">
+        <f t="shared" si="12"/>
+        <v>9.7560975609756184E-3</v>
+      </c>
+      <c r="Q10" s="21">
+        <f t="shared" si="13"/>
+        <v>2.6455026455026509E-2</v>
+      </c>
+      <c r="R10" s="21">
+        <f t="shared" si="14"/>
+        <v>3.7974683544303778E-2</v>
+      </c>
+      <c r="S10" s="21">
+        <f t="shared" si="15"/>
+        <v>1.5463917525773141E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45391.333333333336</v>
+      </c>
+      <c r="B11" s="4">
+        <v>212</v>
+      </c>
+      <c r="C11" s="4">
+        <v>201</v>
+      </c>
+      <c r="D11" s="4">
+        <v>170</v>
+      </c>
+      <c r="E11" s="4">
+        <v>206</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>45391.333333333336</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="3"/>
+        <v>0.21142857142857152</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="4"/>
+        <v>0.21084337349397586</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="5"/>
+        <v>0.57407407407407418</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="6"/>
+        <v>0.27950310559006208</v>
+      </c>
+      <c r="L11" s="20">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="M11" s="20">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" si="12"/>
+        <v>2.4154589371980784E-2</v>
+      </c>
+      <c r="Q11" s="21">
+        <f t="shared" si="13"/>
+        <v>3.6082474226804218E-2</v>
+      </c>
+      <c r="R11" s="21">
+        <f t="shared" si="14"/>
+        <v>3.6585365853658569E-2</v>
+      </c>
+      <c r="S11" s="21">
+        <f t="shared" si="15"/>
+        <v>4.5685279187817285E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45391.770833333336</v>
+      </c>
+      <c r="B12" s="4">
+        <v>220</v>
+      </c>
+      <c r="C12" s="4">
+        <v>207</v>
+      </c>
+      <c r="D12" s="4">
+        <v>174</v>
+      </c>
+      <c r="E12" s="4">
+        <v>209</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>45391.770833333336</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="3"/>
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="4"/>
+        <v>0.24698795180722888</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="5"/>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="6"/>
+        <v>0.29813664596273282</v>
+      </c>
+      <c r="L12" s="20">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="N12" s="20">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="O12" s="20">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="P12" s="21">
+        <f t="shared" ref="P12" si="16">B12/B11-1</f>
+        <v>3.7735849056603765E-2</v>
+      </c>
+      <c r="Q12" s="21">
+        <f t="shared" ref="Q12" si="17">C12/C11-1</f>
+        <v>2.9850746268656803E-2</v>
+      </c>
+      <c r="R12" s="21">
+        <f t="shared" ref="R12" si="18">D12/D11-1</f>
+        <v>2.3529411764705799E-2</v>
+      </c>
+      <c r="S12" s="21">
+        <f t="shared" ref="S12" si="19">E12/E11-1</f>
+        <v>1.4563106796116498E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+    </row>
+    <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="22">
+        <f>(G3-G2)</f>
+        <v>0.14930555555474712</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kattungar.xlsx
+++ b/kattungar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\git\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00973C61-D1B6-4716-BFE9-B4C6F46F8EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91AFE1C-624B-4B5A-91D1-B4C7AA5C727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{36296AD2-3383-4412-B526-17245D0827CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Sp</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>G_t</t>
+  </si>
+  <si>
+    <t>Grå och gul börjar öppna ögonen</t>
+  </si>
+  <si>
+    <t>spräcklig börjar öppna ögonen, grå och gul lite mer</t>
   </si>
 </sst>
 </file>
@@ -319,10 +325,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -355,16 +361,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$H$2:$H$14</c:f>
+              <c:f>Blad1!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -397,6 +412,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.25714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41142857142857148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,10 +478,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -490,16 +514,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$I$2:$I$14</c:f>
+              <c:f>Blad1!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -532,6 +565,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.24698795180722888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30722891566265065</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.32530120481927716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42168674698795172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,10 +629,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -623,16 +665,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$14</c:f>
+              <c:f>Blad1!$J$2:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -665,6 +716,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.61111111111111116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,10 +776,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -752,16 +812,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$K$2:$K$14</c:f>
+              <c:f>Blad1!$K$2:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -794,6 +863,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.29813664596273282</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37888198757763969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48447204968944102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,10 +1197,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1155,16 +1233,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$14</c:f>
+              <c:f>Blad1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>175</c:v>
                 </c:pt>
@@ -1197,6 +1284,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,10 +1350,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1290,16 +1386,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$14</c:f>
+              <c:f>Blad1!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>166</c:v>
                 </c:pt>
@@ -1332,6 +1437,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,10 +1501,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1423,16 +1537,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$14</c:f>
+              <c:f>Blad1!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>108</c:v>
                 </c:pt>
@@ -1465,6 +1588,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,10 +1648,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1552,16 +1684,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$14</c:f>
+              <c:f>Blad1!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>161</c:v>
                 </c:pt>
@@ -1594,6 +1735,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,10 +2071,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1957,16 +2107,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$P$2:$P$14</c:f>
+              <c:f>Blad1!$P$2:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1999,6 +2158,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.7735849056603765E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.3290043290042934E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3913043478260887E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,10 +2222,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2090,16 +2258,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$Q$2:$Q$14</c:f>
+              <c:f>Blad1!$Q$2:$Q$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2132,6 +2309,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.9850746268656803E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8309178743961345E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3824884792626779E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2727272727272751E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,10 +2373,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2223,16 +2409,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$R$2:$R$14</c:f>
+              <c:f>Blad1!$R$2:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2265,6 +2460,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2.3529411764705799E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6206896551724199E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1746031746031855E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6923076923076872E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,10 +2520,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$14</c:f>
+              <c:f>Blad1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2352,16 +2556,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45391.770833333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45392.354166666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45392.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45393.708333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$S$2:$S$14</c:f>
+              <c:f>Blad1!$S$2:$S$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2394,6 +2607,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.4563106796116498E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2200956937799035E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6036036036036112E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9130434782608692E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2468,7 +2690,7 @@
         <c:axId val="1104953631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="-5.000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4294,13 +4516,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4332,13 +4554,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4370,13 +4592,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4724,10 +4946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33456F3-4980-430D-BFBA-60DE0169B3D8}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4897,39 +5120,39 @@
         <v>167</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G12" si="2">A3</f>
+        <f t="shared" ref="G3:G15" si="2">A3</f>
         <v>45388.607638888891</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" ref="H3:H12" si="3">B3/B$2-1</f>
+        <f t="shared" ref="H3:H15" si="3">B3/B$2-1</f>
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I12" si="4">C3/C$2-1</f>
+        <f t="shared" ref="I3:I15" si="4">C3/C$2-1</f>
         <v>-6.0240963855421326E-3</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J12" si="5">D3/D$2-1</f>
+        <f t="shared" ref="J3:J15" si="5">D3/D$2-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K12" si="6">E3/E$2-1</f>
+        <f t="shared" ref="K3:K15" si="6">E3/E$2-1</f>
         <v>3.7267080745341685E-2</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:L12" si="7">B3-B$2</f>
+        <f t="shared" ref="L3:L15" si="7">B3-B$2</f>
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M12" si="8">C3-C$2</f>
+        <f t="shared" ref="M3:M15" si="8">C3-C$2</f>
         <v>-1</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N12" si="9">D3-D$2</f>
+        <f t="shared" ref="N3:N15" si="9">D3-D$2</f>
         <v>9</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:O12" si="10">E3-E$2</f>
+        <f t="shared" ref="O3:O15" si="10">E3-E$2</f>
         <v>6</v>
       </c>
       <c r="P3" s="21">
@@ -5578,39 +5801,249 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="A13" s="1">
+        <v>45392.354166666664</v>
+      </c>
+      <c r="B13" s="4">
+        <v>231</v>
+      </c>
+      <c r="C13" s="4">
+        <v>217</v>
+      </c>
+      <c r="D13" s="4">
+        <v>189</v>
+      </c>
+      <c r="E13" s="4">
+        <v>222</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>45392.354166666664</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="3"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="4"/>
+        <v>0.30722891566265065</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="6"/>
+        <v>0.37888198757763969</v>
+      </c>
+      <c r="L13" s="20">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="N13" s="20">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="10"/>
+        <v>61</v>
+      </c>
+      <c r="P13" s="21">
+        <f t="shared" ref="P13:P14" si="20">B13/B12-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Q13" s="21">
+        <f t="shared" ref="Q13:Q14" si="21">C13/C12-1</f>
+        <v>4.8309178743961345E-2</v>
+      </c>
+      <c r="R13" s="21">
+        <f t="shared" ref="R13:R14" si="22">D13/D12-1</f>
+        <v>8.6206896551724199E-2</v>
+      </c>
+      <c r="S13" s="21">
+        <f t="shared" ref="S13:S14" si="23">E13/E12-1</f>
+        <v>6.2200956937799035E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
+      <c r="A14" s="1">
+        <v>45392.75</v>
+      </c>
+      <c r="B14" s="4">
+        <v>230</v>
+      </c>
+      <c r="C14" s="4">
+        <v>220</v>
+      </c>
+      <c r="D14" s="4">
+        <v>195</v>
+      </c>
+      <c r="E14" s="4">
+        <v>230</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>45392.75</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="4"/>
+        <v>0.32530120481927716</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="5"/>
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="6"/>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="L14" s="20">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="M14" s="20">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="N14" s="20">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="O14" s="20">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" si="20"/>
+        <v>-4.3290043290042934E-3</v>
+      </c>
+      <c r="Q14" s="21">
+        <f t="shared" si="21"/>
+        <v>1.3824884792626779E-2</v>
+      </c>
+      <c r="R14" s="21">
+        <f t="shared" si="22"/>
+        <v>3.1746031746031855E-2</v>
+      </c>
+      <c r="S14" s="21">
+        <f t="shared" si="23"/>
+        <v>3.6036036036036112E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45393.708333333336</v>
+      </c>
+      <c r="B15" s="4">
+        <v>247</v>
+      </c>
+      <c r="C15" s="4">
+        <v>236</v>
+      </c>
+      <c r="D15" s="4">
+        <v>210</v>
+      </c>
+      <c r="E15" s="4">
+        <v>239</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>45393.708333333336</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="3"/>
+        <v>0.41142857142857148</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="4"/>
+        <v>0.42168674698795172</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="5"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="6"/>
+        <v>0.48447204968944102</v>
+      </c>
+      <c r="L15" s="20">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="M15" s="20">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="N15" s="20">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="O15" s="20">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="P15" s="21">
+        <f t="shared" ref="P15" si="24">B15/B14-1</f>
+        <v>7.3913043478260887E-2</v>
+      </c>
+      <c r="Q15" s="21">
+        <f t="shared" ref="Q15" si="25">C15/C14-1</f>
+        <v>7.2727272727272751E-2</v>
+      </c>
+      <c r="R15" s="21">
+        <f t="shared" ref="R15" si="26">D15/D14-1</f>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="S15" s="21">
+        <f t="shared" ref="S15" si="27">E15/E14-1</f>
+        <v>3.9130434782608692E-2</v>
+      </c>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="22">
-        <f>(G3-G2)</f>
-        <v>0.14930555555474712</v>
-      </c>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+    </row>
+    <row r="18" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kattungar.xlsx
+++ b/kattungar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\git\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91AFE1C-624B-4B5A-91D1-B4C7AA5C727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB514673-724C-4301-806C-822D5C7D3F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{36296AD2-3383-4412-B526-17245D0827CA}"/>
   </bookViews>
@@ -194,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -247,7 +247,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4515,15 +4514,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4553,15 +4552,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4591,15 +4590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4946,11 +4945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33456F3-4980-430D-BFBA-60DE0169B3D8}">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomLeft" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4964,7 +4963,7 @@
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45388.458333333336</v>
       </c>
@@ -5090,20 +5089,8 @@
       <c r="S2" s="21">
         <v>0</v>
       </c>
-      <c r="T2" s="21">
-        <v>0</v>
-      </c>
-      <c r="U2" s="21">
-        <v>0</v>
-      </c>
-      <c r="V2" s="21">
-        <v>0</v>
-      </c>
-      <c r="W2" s="21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45388.607638888891</v>
       </c>
@@ -5171,12 +5158,8 @@
         <f t="shared" si="11"/>
         <v>3.7267080745341685E-2</v>
       </c>
-      <c r="T3" s="21">
-        <f>(B3-B2)/(A3-A2)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45388.875</v>
       </c>
@@ -5245,7 +5228,7 @@
         <v>5.9880239520957446E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45389.416666666664</v>
       </c>
@@ -5314,7 +5297,7 @@
         <v>0.10714285714285721</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45389.708333333336</v>
       </c>
@@ -5383,7 +5366,7 @@
         <v>-1.0752688172043001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45389.875</v>
       </c>
@@ -5452,7 +5435,7 @@
         <v>1.6304347826086918E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45390.315972222219</v>
       </c>
@@ -5524,7 +5507,7 @@
         <v>3.2085561497326109E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45390.722222222219</v>
       </c>
@@ -5593,7 +5576,7 @@
         <v>5.1813471502590858E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45390.9375</v>
       </c>
@@ -5662,7 +5645,7 @@
         <v>1.5463917525773141E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45391.333333333336</v>
       </c>
@@ -5731,7 +5714,7 @@
         <v>4.5685279187817285E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45391.770833333336</v>
       </c>
@@ -5800,7 +5783,7 @@
         <v>1.4563106796116498E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45392.354166666664</v>
       </c>
@@ -5869,7 +5852,7 @@
         <v>6.2200956937799035E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45392.75</v>
       </c>
@@ -5941,7 +5924,7 @@
         <v>3.6036036036036112E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45393.708333333336</v>
       </c>
@@ -6013,7 +5996,7 @@
         <v>3.9130434782608692E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -6042,9 +6025,6 @@
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H43" s="22"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kattungar.xlsx
+++ b/kattungar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\git\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB514673-724C-4301-806C-822D5C7D3F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74CCAAE-2D8F-41CD-9D37-DF4F09C89BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{36296AD2-3383-4412-B526-17245D0827CA}"/>
   </bookViews>
@@ -111,9 +111,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -194,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -247,6 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,10 +326,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -369,16 +371,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$H$2:$H$17</c:f>
+              <c:f>Blad1!$H$2:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -420,6 +425,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.41142857142857148</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4285714285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,10 +485,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -522,16 +530,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$I$2:$I$17</c:f>
+              <c:f>Blad1!$I$2:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -573,6 +584,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.42168674698795172</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.43373493975903621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,10 +642,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -673,16 +687,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$17</c:f>
+              <c:f>Blad1!$J$2:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -723,6 +740,9 @@
                   <c:v>0.80555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.94444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.94444444444444442</c:v>
                 </c:pt>
               </c:numCache>
@@ -775,10 +795,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -820,16 +840,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$K$2:$K$17</c:f>
+              <c:f>Blad1!$K$2:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -871,6 +894,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.48447204968944102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51552795031055898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,10 +1222,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1241,16 +1267,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$17</c:f>
+              <c:f>Blad1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>175</c:v>
                 </c:pt>
@@ -1292,6 +1321,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,10 +1381,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1394,16 +1426,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$17</c:f>
+              <c:f>Blad1!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>166</c:v>
                 </c:pt>
@@ -1445,6 +1480,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1500,10 +1538,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1545,16 +1583,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$17</c:f>
+              <c:f>Blad1!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>108</c:v>
                 </c:pt>
@@ -1595,6 +1636,9 @@
                   <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
@@ -1647,10 +1691,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1692,16 +1736,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$17</c:f>
+              <c:f>Blad1!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>161</c:v>
                 </c:pt>
@@ -1743,6 +1790,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2070,10 +2120,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2115,16 +2165,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$P$2:$P$17</c:f>
+              <c:f>Blad1!$P$2:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2132,40 +2185,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2857142857142909E-2</c:v>
+                  <c:v>14.961038961129439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8212290502793325E-2</c:v>
+                  <c:v>25.846153846269573</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0362694300518172E-2</c:v>
+                  <c:v>12.000000000174623</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.564102564102555E-2</c:v>
+                  <c:v>11.338582677248503</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4999999999999911E-2</c:v>
+                  <c:v>12.307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7560975609756184E-3</c:v>
+                  <c:v>9.2903225805056078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4154589371980784E-2</c:v>
+                  <c:v>12.631578947291025</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7735849056603765E-2</c:v>
+                  <c:v>18.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0000000000000044E-2</c:v>
+                  <c:v>18.85714285729966</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.3290043290042934E-3</c:v>
+                  <c:v>-2.5263157894582053</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3913043478260887E-2</c:v>
+                  <c:v>17.739130434737714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.090909091047635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,10 +2277,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2266,57 +2322,63 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$Q$2:$Q$17</c:f>
+              <c:f>Blad1!$Q$2:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.0240963855421326E-3</c:v>
+                  <c:v>-6.6976744186409167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6363636363636376E-2</c:v>
+                  <c:v>22.441558441694159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9415204678362512E-2</c:v>
+                  <c:v>31.384615384755911</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.8510638297872286E-2</c:v>
+                  <c:v>-37.714285713658498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8248587570621542E-2</c:v>
+                  <c:v>30.000000000436557</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.098901098901095E-2</c:v>
+                  <c:v>4.5354330708994013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7173913043478271E-2</c:v>
+                  <c:v>12.307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6455026455026509E-2</c:v>
+                  <c:v>23.22580645126402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6082474226804218E-2</c:v>
+                  <c:v>17.684210526207437</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9850746268656803E-2</c:v>
+                  <c:v>13.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8309178743961345E-2</c:v>
+                  <c:v>17.142857142999691</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3824884792626779E-2</c:v>
+                  <c:v>7.5789473683746156</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2727272727272751E-2</c:v>
+                  <c:v>16.695652173870791</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7272727273650901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,10 +2434,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2417,57 +2479,63 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$R$2:$R$17</c:f>
+              <c:f>Blad1!$R$2:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333259E-2</c:v>
+                  <c:v>60.279069767768249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5470085470085388E-2</c:v>
+                  <c:v>37.402597402823595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1496062992125928E-2</c:v>
+                  <c:v>7.3846153846484492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8702290076335881E-2</c:v>
+                  <c:v>30.857142856629679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4285714285714235E-2</c:v>
+                  <c:v>12.000000000174623</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4507042253521236E-2</c:v>
+                  <c:v>27.212598425396408</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5974025974025983E-2</c:v>
+                  <c:v>9.8461538461538467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7974683544303778E-2</c:v>
+                  <c:v>27.870967741516825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6585365853658569E-2</c:v>
+                  <c:v>15.157894736749231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3529411764705799E-2</c:v>
+                  <c:v>9.1428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.6206896551724199E-2</c:v>
+                  <c:v>25.714285714499539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1746031746031855E-2</c:v>
+                  <c:v>15.157894736749231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6923076923076872E-2</c:v>
+                  <c:v>15.652173913003866</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2519,10 +2587,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$17</c:f>
+              <c:f>Blad1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2564,57 +2632,63 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>45393.708333333336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45393.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$S$2:$S$17</c:f>
+              <c:f>Blad1!$S$2:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7267080745341685E-2</c:v>
+                  <c:v>40.186046511845504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9880239520957446E-3</c:v>
+                  <c:v>3.7402597402823599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10714285714285721</c:v>
+                  <c:v>33.230769230918021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0752688172043001E-2</c:v>
+                  <c:v>-6.8571428570288173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6304347826086918E-2</c:v>
+                  <c:v>18.000000000261934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2085561497326109E-2</c:v>
+                  <c:v>13.606299212698204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1813471502590858E-3</c:v>
+                  <c:v>2.4615384615384617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5463917525773141E-2</c:v>
+                  <c:v>13.935483870758413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5685279187817285E-2</c:v>
+                  <c:v>22.736842105123845</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4563106796116498E-2</c:v>
+                  <c:v>6.8571428571428568</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.2200956937799035E-2</c:v>
+                  <c:v>22.285714285899601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6036036036036112E-2</c:v>
+                  <c:v>20.210526315665643</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9130434782608692E-2</c:v>
+                  <c:v>9.3913043478023202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.818181818412725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2689,7 +2763,7 @@
         <c:axId val="1104953631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-5.000000000000001E-2"/>
+          <c:min val="-40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4513,16 +4587,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4552,15 +4626,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4589,16 +4663,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4945,11 +5019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33456F3-4980-430D-BFBA-60DE0169B3D8}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4963,7 +5037,7 @@
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -5022,7 +5096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45388.458333333336</v>
       </c>
@@ -5090,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45388.607638888891</v>
       </c>
@@ -5107,59 +5181,60 @@
         <v>167</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G15" si="2">A3</f>
+        <f t="shared" ref="G3:G16" si="2">A3</f>
         <v>45388.607638888891</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" ref="H3:H15" si="3">B3/B$2-1</f>
+        <f t="shared" ref="H3:H16" si="3">B3/B$2-1</f>
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I15" si="4">C3/C$2-1</f>
+        <f t="shared" ref="I3:I16" si="4">C3/C$2-1</f>
         <v>-6.0240963855421326E-3</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J15" si="5">D3/D$2-1</f>
+        <f t="shared" ref="J3:J16" si="5">D3/D$2-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K15" si="6">E3/E$2-1</f>
+        <f t="shared" ref="K3:K16" si="6">E3/E$2-1</f>
         <v>3.7267080745341685E-2</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:L15" si="7">B3-B$2</f>
+        <f t="shared" ref="L3:L16" si="7">B3-B$2</f>
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M15" si="8">C3-C$2</f>
+        <f t="shared" ref="M3:M16" si="8">C3-C$2</f>
         <v>-1</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N15" si="9">D3-D$2</f>
+        <f t="shared" ref="N3:N16" si="9">D3-D$2</f>
         <v>9</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:O15" si="10">E3-E$2</f>
+        <f t="shared" ref="O3:O16" si="10">E3-E$2</f>
         <v>6</v>
       </c>
       <c r="P3" s="21">
-        <f>B3/B2-1</f>
+        <f t="shared" ref="P3" si="11">(B3-B2)/($G3-$G2)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="21">
-        <f>C3/C2-1</f>
-        <v>-6.0240963855421326E-3</v>
+        <f t="shared" ref="Q3" si="12">(C3-C2)/($G3-$G2)</f>
+        <v>-6.6976744186409167</v>
       </c>
       <c r="R3" s="21">
-        <f t="shared" ref="R3:S3" si="11">D3/D2-1</f>
-        <v>8.3333333333333259E-2</v>
+        <f t="shared" ref="R3:S3" si="13">(D3-D2)/($G3-$G2)</f>
+        <v>60.279069767768249</v>
       </c>
       <c r="S3" s="21">
-        <f t="shared" si="11"/>
-        <v>3.7267080745341685E-2</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>40.186046511845504</v>
+      </c>
+      <c r="T3" s="22"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45388.875</v>
       </c>
@@ -5212,23 +5287,23 @@
         <v>7</v>
       </c>
       <c r="P4" s="21">
-        <f t="shared" ref="P4:P11" si="12">B4/B3-1</f>
-        <v>2.2857142857142909E-2</v>
+        <f t="shared" ref="P4:P16" si="14">(B4-B3)/(G4-G3)</f>
+        <v>14.961038961129439</v>
       </c>
       <c r="Q4" s="21">
-        <f t="shared" ref="Q4:Q11" si="13">C4/C3-1</f>
-        <v>3.6363636363636376E-2</v>
+        <f t="shared" ref="Q4:Q16" si="15">(C4-C3)/($G4-$G3)</f>
+        <v>22.441558441694159</v>
       </c>
       <c r="R4" s="21">
-        <f t="shared" ref="R4:R11" si="14">D4/D3-1</f>
-        <v>8.5470085470085388E-2</v>
+        <f t="shared" ref="R4:R16" si="16">(D4-D3)/($G4-$G3)</f>
+        <v>37.402597402823595</v>
       </c>
       <c r="S4" s="21">
-        <f t="shared" ref="S4:S11" si="15">E4/E3-1</f>
-        <v>5.9880239520957446E-3</v>
+        <f t="shared" ref="S4:S16" si="17">(E4-E3)/($G4-$G3)</f>
+        <v>3.7402597402823599</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45389.416666666664</v>
       </c>
@@ -5281,23 +5356,23 @@
         <v>25</v>
       </c>
       <c r="P5" s="21">
-        <f t="shared" si="12"/>
-        <v>7.8212290502793325E-2</v>
+        <f t="shared" si="14"/>
+        <v>25.846153846269573</v>
       </c>
       <c r="Q5" s="21">
-        <f t="shared" si="13"/>
-        <v>9.9415204678362512E-2</v>
+        <f t="shared" si="15"/>
+        <v>31.384615384755911</v>
       </c>
       <c r="R5" s="21">
-        <f t="shared" si="14"/>
-        <v>3.1496062992125928E-2</v>
+        <f t="shared" si="16"/>
+        <v>7.3846153846484492</v>
       </c>
       <c r="S5" s="21">
-        <f t="shared" si="15"/>
-        <v>0.10714285714285721</v>
+        <f t="shared" si="17"/>
+        <v>33.230769230918021</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45389.708333333336</v>
       </c>
@@ -5350,23 +5425,23 @@
         <v>23</v>
       </c>
       <c r="P6" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q6" s="21">
-        <f t="shared" si="13"/>
-        <v>-5.8510638297872286E-2</v>
+        <f t="shared" si="15"/>
+        <v>-37.714285713658498</v>
       </c>
       <c r="R6" s="21">
-        <f t="shared" si="14"/>
-        <v>6.8702290076335881E-2</v>
+        <f t="shared" si="16"/>
+        <v>30.857142856629679</v>
       </c>
       <c r="S6" s="21">
-        <f t="shared" si="15"/>
-        <v>-1.0752688172043001E-2</v>
+        <f t="shared" si="17"/>
+        <v>-6.8571428570288173</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45389.875</v>
       </c>
@@ -5419,23 +5494,23 @@
         <v>26</v>
       </c>
       <c r="P7" s="21">
-        <f t="shared" si="12"/>
-        <v>1.0362694300518172E-2</v>
+        <f t="shared" si="14"/>
+        <v>12.000000000174623</v>
       </c>
       <c r="Q7" s="21">
-        <f t="shared" si="13"/>
-        <v>2.8248587570621542E-2</v>
+        <f t="shared" si="15"/>
+        <v>30.000000000436557</v>
       </c>
       <c r="R7" s="21">
-        <f t="shared" si="14"/>
-        <v>1.4285714285714235E-2</v>
+        <f t="shared" si="16"/>
+        <v>12.000000000174623</v>
       </c>
       <c r="S7" s="21">
-        <f t="shared" si="15"/>
-        <v>1.6304347826086918E-2</v>
+        <f t="shared" si="17"/>
+        <v>18.000000000261934</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45390.315972222219</v>
       </c>
@@ -5491,23 +5566,23 @@
         <v>32</v>
       </c>
       <c r="P8" s="21">
-        <f t="shared" si="12"/>
-        <v>2.564102564102555E-2</v>
+        <f t="shared" si="14"/>
+        <v>11.338582677248503</v>
       </c>
       <c r="Q8" s="21">
-        <f>C8/C7-1</f>
-        <v>1.098901098901095E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.5354330708994013</v>
       </c>
       <c r="R8" s="21">
-        <f t="shared" si="14"/>
-        <v>8.4507042253521236E-2</v>
+        <f t="shared" si="16"/>
+        <v>27.212598425396408</v>
       </c>
       <c r="S8" s="21">
-        <f t="shared" si="15"/>
-        <v>3.2085561497326109E-2</v>
+        <f t="shared" si="17"/>
+        <v>13.606299212698204</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45390.722222222219</v>
       </c>
@@ -5560,23 +5635,23 @@
         <v>33</v>
       </c>
       <c r="P9" s="21">
-        <f t="shared" si="12"/>
-        <v>2.4999999999999911E-2</v>
+        <f t="shared" si="14"/>
+        <v>12.307692307692308</v>
       </c>
       <c r="Q9" s="21">
-        <f t="shared" si="13"/>
-        <v>2.7173913043478271E-2</v>
+        <f t="shared" si="15"/>
+        <v>12.307692307692308</v>
       </c>
       <c r="R9" s="21">
-        <f t="shared" si="14"/>
-        <v>2.5974025974025983E-2</v>
+        <f t="shared" si="16"/>
+        <v>9.8461538461538467</v>
       </c>
       <c r="S9" s="21">
-        <f t="shared" si="15"/>
-        <v>5.1813471502590858E-3</v>
+        <f t="shared" si="17"/>
+        <v>2.4615384615384617</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45390.9375</v>
       </c>
@@ -5629,23 +5704,23 @@
         <v>36</v>
       </c>
       <c r="P10" s="21">
-        <f t="shared" si="12"/>
-        <v>9.7560975609756184E-3</v>
+        <f t="shared" si="14"/>
+        <v>9.2903225805056078</v>
       </c>
       <c r="Q10" s="21">
-        <f t="shared" si="13"/>
-        <v>2.6455026455026509E-2</v>
+        <f t="shared" si="15"/>
+        <v>23.22580645126402</v>
       </c>
       <c r="R10" s="21">
-        <f t="shared" si="14"/>
-        <v>3.7974683544303778E-2</v>
+        <f t="shared" si="16"/>
+        <v>27.870967741516825</v>
       </c>
       <c r="S10" s="21">
-        <f t="shared" si="15"/>
-        <v>1.5463917525773141E-2</v>
+        <f t="shared" si="17"/>
+        <v>13.935483870758413</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45391.333333333336</v>
       </c>
@@ -5698,23 +5773,23 @@
         <v>45</v>
       </c>
       <c r="P11" s="21">
-        <f t="shared" si="12"/>
-        <v>2.4154589371980784E-2</v>
+        <f t="shared" si="14"/>
+        <v>12.631578947291025</v>
       </c>
       <c r="Q11" s="21">
-        <f t="shared" si="13"/>
-        <v>3.6082474226804218E-2</v>
+        <f t="shared" si="15"/>
+        <v>17.684210526207437</v>
       </c>
       <c r="R11" s="21">
-        <f t="shared" si="14"/>
-        <v>3.6585365853658569E-2</v>
+        <f t="shared" si="16"/>
+        <v>15.157894736749231</v>
       </c>
       <c r="S11" s="21">
-        <f t="shared" si="15"/>
-        <v>4.5685279187817285E-2</v>
+        <f t="shared" si="17"/>
+        <v>22.736842105123845</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45391.770833333336</v>
       </c>
@@ -5767,23 +5842,23 @@
         <v>48</v>
       </c>
       <c r="P12" s="21">
-        <f t="shared" ref="P12" si="16">B12/B11-1</f>
-        <v>3.7735849056603765E-2</v>
+        <f t="shared" si="14"/>
+        <v>18.285714285714285</v>
       </c>
       <c r="Q12" s="21">
-        <f t="shared" ref="Q12" si="17">C12/C11-1</f>
-        <v>2.9850746268656803E-2</v>
+        <f t="shared" si="15"/>
+        <v>13.714285714285714</v>
       </c>
       <c r="R12" s="21">
-        <f t="shared" ref="R12" si="18">D12/D11-1</f>
-        <v>2.3529411764705799E-2</v>
+        <f t="shared" si="16"/>
+        <v>9.1428571428571423</v>
       </c>
       <c r="S12" s="21">
-        <f t="shared" ref="S12" si="19">E12/E11-1</f>
-        <v>1.4563106796116498E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.8571428571428568</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45392.354166666664</v>
       </c>
@@ -5836,23 +5911,23 @@
         <v>61</v>
       </c>
       <c r="P13" s="21">
-        <f t="shared" ref="P13:P14" si="20">B13/B12-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="14"/>
+        <v>18.85714285729966</v>
       </c>
       <c r="Q13" s="21">
-        <f t="shared" ref="Q13:Q14" si="21">C13/C12-1</f>
-        <v>4.8309178743961345E-2</v>
+        <f t="shared" si="15"/>
+        <v>17.142857142999691</v>
       </c>
       <c r="R13" s="21">
-        <f t="shared" ref="R13:R14" si="22">D13/D12-1</f>
-        <v>8.6206896551724199E-2</v>
+        <f t="shared" si="16"/>
+        <v>25.714285714499539</v>
       </c>
       <c r="S13" s="21">
-        <f t="shared" ref="S13:S14" si="23">E13/E12-1</f>
-        <v>6.2200956937799035E-2</v>
+        <f t="shared" si="17"/>
+        <v>22.285714285899601</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45392.75</v>
       </c>
@@ -5908,23 +5983,23 @@
         <v>69</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" si="20"/>
-        <v>-4.3290043290042934E-3</v>
+        <f t="shared" si="14"/>
+        <v>-2.5263157894582053</v>
       </c>
       <c r="Q14" s="21">
-        <f t="shared" si="21"/>
-        <v>1.3824884792626779E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.5789473683746156</v>
       </c>
       <c r="R14" s="21">
-        <f t="shared" si="22"/>
-        <v>3.1746031746031855E-2</v>
+        <f t="shared" si="16"/>
+        <v>15.157894736749231</v>
       </c>
       <c r="S14" s="21">
-        <f t="shared" si="23"/>
-        <v>3.6036036036036112E-2</v>
+        <f t="shared" si="17"/>
+        <v>20.210526315665643</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45393.708333333336</v>
       </c>
@@ -5980,50 +6055,119 @@
         <v>78</v>
       </c>
       <c r="P15" s="21">
-        <f t="shared" ref="P15" si="24">B15/B14-1</f>
-        <v>7.3913043478260887E-2</v>
+        <f t="shared" si="14"/>
+        <v>17.739130434737714</v>
       </c>
       <c r="Q15" s="21">
-        <f t="shared" ref="Q15" si="25">C15/C14-1</f>
-        <v>7.2727272727272751E-2</v>
+        <f t="shared" si="15"/>
+        <v>16.695652173870791</v>
       </c>
       <c r="R15" s="21">
-        <f t="shared" ref="R15" si="26">D15/D14-1</f>
-        <v>7.6923076923076872E-2</v>
+        <f t="shared" si="16"/>
+        <v>15.652173913003866</v>
       </c>
       <c r="S15" s="21">
-        <f t="shared" ref="S15" si="27">E15/E14-1</f>
-        <v>3.9130434782608692E-2</v>
+        <f t="shared" si="17"/>
+        <v>9.3913043478023202</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45393.9375</v>
+      </c>
+      <c r="B16" s="4">
+        <v>250</v>
+      </c>
+      <c r="C16" s="4">
+        <v>238</v>
+      </c>
+      <c r="D16" s="4">
+        <v>210</v>
+      </c>
+      <c r="E16" s="4">
+        <v>244</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="2"/>
+        <v>45393.9375</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="3"/>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="4"/>
+        <v>0.43373493975903621</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="5"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="6"/>
+        <v>0.51552795031055898</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="N16" s="20">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="O16" s="20">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="14"/>
+        <v>13.090909091047635</v>
+      </c>
+      <c r="Q16" s="21">
+        <f t="shared" si="15"/>
+        <v>8.7272727273650901</v>
+      </c>
+      <c r="R16" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="21">
+        <f t="shared" si="17"/>
+        <v>21.818181818412725</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+    </row>
+    <row r="19" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kattungar.xlsx
+++ b/kattungar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\git\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74CCAAE-2D8F-41CD-9D37-DF4F09C89BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22548036-C5CC-488B-A864-DAB98D9D327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{36296AD2-3383-4412-B526-17245D0827CA}"/>
   </bookViews>
@@ -114,7 +114,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -248,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,10 +326,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -374,16 +374,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$H$2:$H$18</c:f>
+              <c:f>Blad1!$H$2:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -428,6 +434,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46857142857142864</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50285714285714289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,10 +497,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -533,16 +545,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$I$2:$I$18</c:f>
+              <c:f>Blad1!$I$2:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -587,6 +605,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.43373493975903621</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46987951807228923</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50602409638554224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,10 +666,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -690,16 +714,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$18</c:f>
+              <c:f>Blad1!$J$2:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -744,6 +774,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.94444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95370370370370372</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0092592592592591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,10 +831,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -843,16 +879,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$K$2:$K$18</c:f>
+              <c:f>Blad1!$K$2:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -897,6 +939,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.51552795031055898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.52795031055900621</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54658385093167694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,10 +1270,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1270,16 +1318,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$18</c:f>
+              <c:f>Blad1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>175</c:v>
                 </c:pt>
@@ -1324,6 +1378,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,10 +1441,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1429,16 +1489,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$18</c:f>
+              <c:f>Blad1!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>166</c:v>
                 </c:pt>
@@ -1483,6 +1549,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1538,10 +1610,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1586,16 +1658,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$18</c:f>
+              <c:f>Blad1!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>108</c:v>
                 </c:pt>
@@ -1640,6 +1718,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,10 +1775,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1739,16 +1823,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$18</c:f>
+              <c:f>Blad1!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>161</c:v>
                 </c:pt>
@@ -1793,6 +1883,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,10 +2216,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2168,16 +2264,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$P$2:$P$18</c:f>
+              <c:f>Blad1!$P$2:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2222,6 +2324,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>13.090909091047635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.684210526207437</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2277,10 +2385,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2325,16 +2433,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$Q$2:$Q$18</c:f>
+              <c:f>Blad1!$Q$2:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2379,6 +2493,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>8.7272727273650901</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.157894736749231</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2434,10 +2554,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2482,16 +2602,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$R$2:$R$18</c:f>
+              <c:f>Blad1!$R$2:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2536,6 +2662,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5263157894582053</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2587,10 +2719,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$18</c:f>
+              <c:f>Blad1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2635,16 +2767,22 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45393.9375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45394.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45394.895833333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$S$2:$S$18</c:f>
+              <c:f>Blad1!$S$2:$S$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2689,6 +2827,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>21.818181818412725</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0526315789164107</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,13 +4733,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4627,13 +4771,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4665,13 +4809,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5019,11 +5163,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33456F3-4980-430D-BFBA-60DE0169B3D8}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5181,35 +5325,35 @@
         <v>167</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G16" si="2">A3</f>
+        <f t="shared" ref="G3:G18" si="2">A3</f>
         <v>45388.607638888891</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" ref="H3:H16" si="3">B3/B$2-1</f>
+        <f t="shared" ref="H3:H18" si="3">B3/B$2-1</f>
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I16" si="4">C3/C$2-1</f>
+        <f t="shared" ref="I3:I18" si="4">C3/C$2-1</f>
         <v>-6.0240963855421326E-3</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J16" si="5">D3/D$2-1</f>
+        <f t="shared" ref="J3:J18" si="5">D3/D$2-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K16" si="6">E3/E$2-1</f>
+        <f t="shared" ref="K3:K18" si="6">E3/E$2-1</f>
         <v>3.7267080745341685E-2</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:L16" si="7">B3-B$2</f>
+        <f t="shared" ref="L3:L18" si="7">B3-B$2</f>
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M16" si="8">C3-C$2</f>
+        <f t="shared" ref="M3:M18" si="8">C3-C$2</f>
         <v>-1</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N16" si="9">D3-D$2</f>
+        <f t="shared" ref="N3:N17" si="9">D3-D$2</f>
         <v>9</v>
       </c>
       <c r="O3" s="20">
@@ -6141,33 +6285,171 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
+      <c r="A17" s="1">
+        <v>45394.333333333336</v>
+      </c>
+      <c r="B17" s="4">
+        <v>257</v>
+      </c>
+      <c r="C17" s="4">
+        <v>244</v>
+      </c>
+      <c r="D17" s="4">
+        <v>211</v>
+      </c>
+      <c r="E17" s="4">
+        <v>246</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="2"/>
+        <v>45394.333333333336</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="3"/>
+        <v>0.46857142857142864</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="4"/>
+        <v>0.46987951807228923</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="5"/>
+        <v>0.95370370370370372</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="6"/>
+        <v>0.52795031055900621</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="M17" s="20">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="N17" s="20">
+        <f>E17-D$2</f>
+        <v>138</v>
+      </c>
+      <c r="O17" s="20">
+        <f t="shared" ref="O17:O18" si="18">E17-E$2</f>
+        <v>85</v>
+      </c>
+      <c r="P17" s="21">
+        <f t="shared" ref="P17:P18" si="19">(B17-B16)/(G17-G16)</f>
+        <v>17.684210526207437</v>
+      </c>
+      <c r="Q17" s="21">
+        <f t="shared" ref="Q17:Q18" si="20">(C17-C16)/($G17-$G16)</f>
+        <v>15.157894736749231</v>
+      </c>
+      <c r="R17" s="21">
+        <f t="shared" ref="R17:R18" si="21">(D17-D16)/($G17-$G16)</f>
+        <v>2.5263157894582053</v>
+      </c>
+      <c r="S17" s="21">
+        <f t="shared" ref="S17:S18" si="22">(E17-E16)/($G17-$G16)</f>
+        <v>5.0526315789164107</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
+      <c r="A18" s="1">
+        <v>45394.895833333336</v>
+      </c>
+      <c r="B18" s="4">
+        <v>263</v>
+      </c>
+      <c r="C18" s="4">
+        <v>250</v>
+      </c>
+      <c r="D18" s="4">
+        <v>217</v>
+      </c>
+      <c r="E18" s="4">
+        <v>249</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="2"/>
+        <v>45394.895833333336</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="3"/>
+        <v>0.50285714285714289</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="4"/>
+        <v>0.50602409638554224</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0092592592592591</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="6"/>
+        <v>0.54658385093167694</v>
+      </c>
+      <c r="L18" s="20">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="M18" s="20">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="N18" s="20">
+        <f>E18-D$2</f>
+        <v>141</v>
+      </c>
+      <c r="O18" s="20">
+        <f t="shared" si="18"/>
+        <v>88</v>
+      </c>
+      <c r="P18" s="21">
+        <f t="shared" si="19"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="Q18" s="21">
+        <f t="shared" si="20"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="R18" s="21">
+        <f t="shared" si="21"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="S18" s="21">
+        <f t="shared" si="22"/>
+        <v>5.333333333333333</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+    </row>
+    <row r="21" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kattungar.xlsx
+++ b/kattungar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\git\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22548036-C5CC-488B-A864-DAB98D9D327A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01656C1E-B623-486C-8041-2FFEB2722A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{36296AD2-3383-4412-B526-17245D0827CA}"/>
   </bookViews>
@@ -326,10 +326,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -380,16 +380,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$H$2:$H$20</c:f>
+              <c:f>Blad1!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -440,6 +443,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.50285714285714289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54857142857142849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -497,10 +503,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -551,16 +557,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$I$2:$I$20</c:f>
+              <c:f>Blad1!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -611,6 +620,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.50602409638554224</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56626506024096379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,10 +678,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -720,16 +732,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$20</c:f>
+              <c:f>Blad1!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -780,6 +795,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.0092592592592591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0648148148148149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,10 +849,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -885,16 +903,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$K$2:$K$20</c:f>
+              <c:f>Blad1!$K$2:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -945,6 +966,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.54658385093167694</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64596273291925477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,10 +1294,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1324,16 +1348,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$20</c:f>
+              <c:f>Blad1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>175</c:v>
                 </c:pt>
@@ -1384,6 +1411,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,10 +1471,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1495,16 +1525,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$20</c:f>
+              <c:f>Blad1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>166</c:v>
                 </c:pt>
@@ -1555,6 +1588,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1610,10 +1646,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1664,16 +1700,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$20</c:f>
+              <c:f>Blad1!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>108</c:v>
                 </c:pt>
@@ -1724,6 +1763,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,10 +1817,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1829,16 +1871,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$20</c:f>
+              <c:f>Blad1!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>161</c:v>
                 </c:pt>
@@ -1889,6 +1934,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,10 +2264,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2270,16 +2318,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$P$2:$P$20</c:f>
+              <c:f>Blad1!$P$2:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2330,6 +2381,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>10.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.239024390256667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2385,10 +2439,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2439,16 +2493,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$Q$2:$Q$20</c:f>
+              <c:f>Blad1!$Q$2:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2499,6 +2556,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>10.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.048780487820833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2554,10 +2614,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2608,16 +2668,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$R$2:$R$20</c:f>
+              <c:f>Blad1!$R$2:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2668,6 +2731,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>10.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4292682926925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,10 +2785,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$20</c:f>
+              <c:f>Blad1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2773,16 +2839,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45394.895833333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45395.607638888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$S$2:$S$20</c:f>
+              <c:f>Blad1!$S$2:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2833,6 +2902,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.478048780513333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4733,13 +4805,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4771,13 +4843,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4809,13 +4881,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5163,11 +5235,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33456F3-4980-430D-BFBA-60DE0169B3D8}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5325,35 +5397,35 @@
         <v>167</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G18" si="2">A3</f>
+        <f t="shared" ref="G3:G19" si="2">A3</f>
         <v>45388.607638888891</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" ref="H3:H18" si="3">B3/B$2-1</f>
+        <f t="shared" ref="H3:H19" si="3">B3/B$2-1</f>
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I18" si="4">C3/C$2-1</f>
+        <f t="shared" ref="I3:I19" si="4">C3/C$2-1</f>
         <v>-6.0240963855421326E-3</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J18" si="5">D3/D$2-1</f>
+        <f t="shared" ref="J3:J19" si="5">D3/D$2-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K18" si="6">E3/E$2-1</f>
+        <f t="shared" ref="K3:K19" si="6">E3/E$2-1</f>
         <v>3.7267080745341685E-2</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:L18" si="7">B3-B$2</f>
+        <f t="shared" ref="L3:L19" si="7">B3-B$2</f>
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M18" si="8">C3-C$2</f>
+        <f t="shared" ref="M3:M19" si="8">C3-C$2</f>
         <v>-1</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N17" si="9">D3-D$2</f>
+        <f t="shared" ref="N3:N16" si="9">D3-D$2</f>
         <v>9</v>
       </c>
       <c r="O3" s="20">
@@ -5702,7 +5774,7 @@
         <v>18</v>
       </c>
       <c r="N8" s="20">
-        <f t="shared" si="9"/>
+        <f>D8-D$2</f>
         <v>46</v>
       </c>
       <c r="O8" s="20">
@@ -6333,7 +6405,7 @@
         <v>138</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" ref="O17:O18" si="18">E17-E$2</f>
+        <f t="shared" ref="O17:O19" si="18">E17-E$2</f>
         <v>85</v>
       </c>
       <c r="P17" s="21">
@@ -6423,33 +6495,102 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
+      <c r="A19" s="1">
+        <v>45395.607638888891</v>
+      </c>
+      <c r="B19" s="4">
+        <v>271</v>
+      </c>
+      <c r="C19" s="4">
+        <v>260</v>
+      </c>
+      <c r="D19" s="4">
+        <v>223</v>
+      </c>
+      <c r="E19" s="4">
+        <v>265</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="2"/>
+        <v>45395.607638888891</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="3"/>
+        <v>0.54857142857142849</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="4"/>
+        <v>0.56626506024096379</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="5"/>
+        <v>1.0648148148148149</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="6"/>
+        <v>0.64596273291925477</v>
+      </c>
+      <c r="L19" s="20">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="M19" s="20">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="N19" s="20">
+        <f>E19-D$2</f>
+        <v>157</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="18"/>
+        <v>104</v>
+      </c>
+      <c r="P19" s="21">
+        <f t="shared" ref="P19" si="23">(B19-B18)/(G19-G18)</f>
+        <v>11.239024390256667</v>
+      </c>
+      <c r="Q19" s="21">
+        <f t="shared" ref="Q19" si="24">(C19-C18)/($G19-$G18)</f>
+        <v>14.048780487820833</v>
+      </c>
+      <c r="R19" s="21">
+        <f t="shared" ref="R19" si="25">(D19-D18)/($G19-$G18)</f>
+        <v>8.4292682926925</v>
+      </c>
+      <c r="S19" s="21">
+        <f t="shared" ref="S19" si="26">(E19-E18)/($G19-$G18)</f>
+        <v>22.478048780513333</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
     </row>
-    <row r="21" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kattungar.xlsx
+++ b/kattungar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\git\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01656C1E-B623-486C-8041-2FFEB2722A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B42ABA-6F5A-4C86-81FF-2437F14CB223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{36296AD2-3383-4412-B526-17245D0827CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Sp</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>spräcklig börjar öppna ögonen, grå och gul lite mer</t>
+  </si>
+  <si>
+    <t>Alla har börjat öppna ögonen</t>
+  </si>
+  <si>
+    <t>Alla ögon öppna, på den svarta lite mindre</t>
   </si>
 </sst>
 </file>
@@ -326,10 +332,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -383,16 +389,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$H$2:$H$21</c:f>
+              <c:f>Blad1!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -446,6 +455,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.54857142857142849</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65714285714285725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,10 +515,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -560,16 +572,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$I$2:$I$21</c:f>
+              <c:f>Blad1!$I$2:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -623,6 +638,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.56626506024096379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6144578313253013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,10 +696,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -735,16 +753,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$21</c:f>
+              <c:f>Blad1!$J$2:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -798,6 +819,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.0648148148148149</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1851851851851851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,10 +873,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -906,16 +930,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$K$2:$K$21</c:f>
+              <c:f>Blad1!$K$2:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -969,6 +996,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.64596273291925477</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68944099378881996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,10 +1324,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1351,16 +1381,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$21</c:f>
+              <c:f>Blad1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>175</c:v>
                 </c:pt>
@@ -1414,6 +1447,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,10 +1507,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1528,16 +1564,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$21</c:f>
+              <c:f>Blad1!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>166</c:v>
                 </c:pt>
@@ -1591,6 +1630,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,10 +1688,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1703,16 +1745,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$21</c:f>
+              <c:f>Blad1!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>108</c:v>
                 </c:pt>
@@ -1766,6 +1811,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1817,10 +1865,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1874,16 +1922,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$21</c:f>
+              <c:f>Blad1!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>161</c:v>
                 </c:pt>
@@ -1937,6 +1988,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2264,10 +2318,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2321,16 +2375,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$P$2:$P$21</c:f>
+              <c:f>Blad1!$P$2:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2384,6 +2441,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>11.239024390256667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.064516129073688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,10 +2499,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2496,16 +2556,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$Q$2:$Q$21</c:f>
+              <c:f>Blad1!$Q$2:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2559,6 +2622,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>14.048780487820833</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2903225806626057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2614,10 +2680,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2671,16 +2737,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$R$2:$R$21</c:f>
+              <c:f>Blad1!$R$2:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2734,6 +2803,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>8.4292682926925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.096774193576733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,10 +2857,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$21</c:f>
+              <c:f>Blad1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2842,16 +2914,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>45395.607638888891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45396.46875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$S$2:$S$21</c:f>
+              <c:f>Blad1!$S$2:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2905,6 +2980,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>22.478048780513333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1290322580797802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4805,13 +4883,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4843,13 +4921,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4881,13 +4959,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5235,11 +5313,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33456F3-4980-430D-BFBA-60DE0169B3D8}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5397,31 +5475,31 @@
         <v>167</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G19" si="2">A3</f>
+        <f t="shared" ref="G3:G20" si="2">A3</f>
         <v>45388.607638888891</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" ref="H3:H19" si="3">B3/B$2-1</f>
+        <f t="shared" ref="H3:H20" si="3">B3/B$2-1</f>
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I19" si="4">C3/C$2-1</f>
+        <f t="shared" ref="I3:I20" si="4">C3/C$2-1</f>
         <v>-6.0240963855421326E-3</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J19" si="5">D3/D$2-1</f>
+        <f t="shared" ref="J3:J20" si="5">D3/D$2-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K19" si="6">E3/E$2-1</f>
+        <f t="shared" ref="K3:K20" si="6">E3/E$2-1</f>
         <v>3.7267080745341685E-2</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:L19" si="7">B3-B$2</f>
+        <f t="shared" ref="L3:L20" si="7">B3-B$2</f>
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M19" si="8">C3-C$2</f>
+        <f t="shared" ref="M3:M20" si="8">C3-C$2</f>
         <v>-1</v>
       </c>
       <c r="N3" s="20">
@@ -6372,6 +6450,9 @@
       <c r="E17" s="4">
         <v>246</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G17" s="3">
         <f t="shared" si="2"/>
         <v>45394.333333333336</v>
@@ -6405,7 +6486,7 @@
         <v>138</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" ref="O17:O19" si="18">E17-E$2</f>
+        <f t="shared" ref="O17:O20" si="18">E17-E$2</f>
         <v>85</v>
       </c>
       <c r="P17" s="21">
@@ -6564,33 +6645,105 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
+      <c r="A20" s="1">
+        <v>45396.46875</v>
+      </c>
+      <c r="B20" s="4">
+        <v>290</v>
+      </c>
+      <c r="C20" s="4">
+        <v>268</v>
+      </c>
+      <c r="D20" s="4">
+        <v>236</v>
+      </c>
+      <c r="E20" s="4">
+        <v>272</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>45396.46875</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="3"/>
+        <v>0.65714285714285725</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="4"/>
+        <v>0.6144578313253013</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="5"/>
+        <v>1.1851851851851851</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="6"/>
+        <v>0.68944099378881996</v>
+      </c>
+      <c r="L20" s="20">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+      <c r="M20" s="20">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="N20" s="20">
+        <f>E20-D$2</f>
+        <v>164</v>
+      </c>
+      <c r="O20" s="20">
+        <f t="shared" si="18"/>
+        <v>111</v>
+      </c>
+      <c r="P20" s="21">
+        <f t="shared" ref="P20" si="27">(B20-B19)/(G20-G19)</f>
+        <v>22.064516129073688</v>
+      </c>
+      <c r="Q20" s="21">
+        <f t="shared" ref="Q20" si="28">(C20-C19)/($G20-$G19)</f>
+        <v>9.2903225806626057</v>
+      </c>
+      <c r="R20" s="21">
+        <f t="shared" ref="R20" si="29">(D20-D19)/($G20-$G19)</f>
+        <v>15.096774193576733</v>
+      </c>
+      <c r="S20" s="21">
+        <f t="shared" ref="S20" si="30">(E20-E19)/($G20-$G19)</f>
+        <v>8.1290322580797802</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
     </row>
-    <row r="22" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+    </row>
+    <row r="23" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kattungar.xlsx
+++ b/kattungar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\git\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B42ABA-6F5A-4C86-81FF-2437F14CB223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB880F5-05E1-4F95-8469-96A5F8872620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{36296AD2-3383-4412-B526-17245D0827CA}"/>
   </bookViews>
@@ -332,10 +332,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -392,16 +392,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$H$2:$H$22</c:f>
+              <c:f>Blad1!$H$2:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -458,6 +479,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.65714285714285725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91428571428571437</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0342857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,10 +557,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -575,16 +617,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$I$2:$I$22</c:f>
+              <c:f>Blad1!$I$2:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -641,6 +704,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.6144578313253013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72289156626506035</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6987951807228916</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8012048192771084</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.79518072289156616</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.8674698795180722</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8674698795180722</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99397590361445776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,10 +780,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -756,16 +840,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$22</c:f>
+              <c:f>Blad1!$J$2:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -822,6 +927,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.1851851851851851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2129629629629628</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3148148148148149</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4629629629629628</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4722222222222223</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6666666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,10 +999,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -933,16 +1059,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$K$2:$K$22</c:f>
+              <c:f>Blad1!$K$2:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -999,6 +1146,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.68944099378881996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75155279503105588</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75155279503105588</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90062111801242239</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86956521739130443</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89440993788819867</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.031055900621118</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0496894409937889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,10 +1492,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1384,16 +1552,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$22</c:f>
+              <c:f>Blad1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>175</c:v>
                 </c:pt>
@@ -1450,6 +1639,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,10 +1717,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1567,16 +1777,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$22</c:f>
+              <c:f>Blad1!$C$2:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>166</c:v>
                 </c:pt>
@@ -1633,6 +1864,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,10 +1940,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1748,16 +2000,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$22</c:f>
+              <c:f>Blad1!$D$2:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>108</c:v>
                 </c:pt>
@@ -1814,6 +2087,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,10 +2159,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -1925,16 +2219,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$22</c:f>
+              <c:f>Blad1!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>161</c:v>
                 </c:pt>
@@ -1991,6 +2306,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,10 +2654,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2378,16 +2714,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$P$2:$P$22</c:f>
+              <c:f>Blad1!$P$2:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2444,6 +2801,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>22.064516129073688</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5172413793103452</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.285714285999383</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.117647058775191</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.173913043499387</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.351351351277881</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-23.999999999720604</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.960000000058116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,10 +2877,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2559,16 +2937,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$Q$2:$Q$22</c:f>
+              <c:f>Blad1!$Q$2:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2625,6 +3024,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>9.2903225806626057</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.862068965517242</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-13.714285714399754</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.999999999917826</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.0869565217496935</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.567567567518587</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.160000000046939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,10 +3100,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2740,16 +3160,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$R$2:$R$22</c:f>
+              <c:f>Blad1!$R$2:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2806,6 +3247,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>15.096774193576733</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3103448275862069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.71428571459932</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.588235294040306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10.434782608748469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.7837837837592936</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.399999999273568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.6800000000178814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,10 +3319,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$G$2:$G$22</c:f>
+              <c:f>Blad1!$G$2:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>45388.458333333336</c:v>
                 </c:pt>
@@ -2917,16 +3379,37 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>45396.46875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45397.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45397.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45398.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45398.854166666664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45399.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45399.833333333336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45400.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$S$2:$S$22</c:f>
+              <c:f>Blad1!$S$2:$S$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2983,6 +3466,27 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>8.1290322580797802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.03448275862069</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.882352941060461</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10.434782608748469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.1891891891728621</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>105.59999999877066</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8800000000067056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4883,13 +5387,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4921,13 +5425,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4959,13 +5463,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5313,11 +5817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33456F3-4980-430D-BFBA-60DE0169B3D8}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5329,6 +5833,7 @@
     <col min="8" max="8" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -5475,31 +5980,31 @@
         <v>167</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G20" si="2">A3</f>
+        <f t="shared" ref="G3:G27" si="2">A3</f>
         <v>45388.607638888891</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" ref="H3:H20" si="3">B3/B$2-1</f>
+        <f t="shared" ref="H3:H25" si="3">B3/B$2-1</f>
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I20" si="4">C3/C$2-1</f>
+        <f t="shared" ref="I3:I25" si="4">C3/C$2-1</f>
         <v>-6.0240963855421326E-3</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J20" si="5">D3/D$2-1</f>
+        <f t="shared" ref="J3:J25" si="5">D3/D$2-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K20" si="6">E3/E$2-1</f>
+        <f t="shared" ref="K3:K25" si="6">E3/E$2-1</f>
         <v>3.7267080745341685E-2</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:L20" si="7">B3-B$2</f>
+        <f t="shared" ref="L3:L25" si="7">B3-B$2</f>
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M20" si="8">C3-C$2</f>
+        <f t="shared" ref="M3:M25" si="8">C3-C$2</f>
         <v>-1</v>
       </c>
       <c r="N3" s="20">
@@ -6486,7 +6991,7 @@
         <v>138</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" ref="O17:O20" si="18">E17-E$2</f>
+        <f t="shared" ref="O17:O25" si="18">E17-E$2</f>
         <v>85</v>
       </c>
       <c r="P17" s="21">
@@ -6717,33 +7222,516 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
+      <c r="A21" s="1">
+        <v>45397.375</v>
+      </c>
+      <c r="B21" s="4">
+        <v>295</v>
+      </c>
+      <c r="C21" s="4">
+        <v>286</v>
+      </c>
+      <c r="D21" s="4">
+        <v>239</v>
+      </c>
+      <c r="E21" s="4">
+        <v>282</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="2"/>
+        <v>45397.375</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" ref="H21:H27" si="31">B21/B$2-1</f>
+        <v>0.68571428571428572</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" ref="I21:I27" si="32">C21/C$2-1</f>
+        <v>0.72289156626506035</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" ref="J21:J27" si="33">D21/D$2-1</f>
+        <v>1.2129629629629628</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" ref="K21:K27" si="34">E21/E$2-1</f>
+        <v>0.75155279503105588</v>
+      </c>
+      <c r="L21" s="20">
+        <f t="shared" ref="L21:L27" si="35">B21-B$2</f>
+        <v>120</v>
+      </c>
+      <c r="M21" s="20">
+        <f t="shared" ref="M21:M27" si="36">C21-C$2</f>
+        <v>120</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" ref="N21:N27" si="37">E21-D$2</f>
+        <v>174</v>
+      </c>
+      <c r="O21" s="20">
+        <f t="shared" ref="O21:O27" si="38">E21-E$2</f>
+        <v>121</v>
+      </c>
+      <c r="P21" s="21">
+        <f t="shared" ref="P21:P27" si="39">(B21-B20)/(G21-G20)</f>
+        <v>5.5172413793103452</v>
+      </c>
+      <c r="Q21" s="21">
+        <f t="shared" ref="Q21:Q27" si="40">(C21-C20)/($G21-$G20)</f>
+        <v>19.862068965517242</v>
+      </c>
+      <c r="R21" s="21">
+        <f t="shared" ref="R21:R27" si="41">(D21-D20)/($G21-$G20)</f>
+        <v>3.3103448275862069</v>
+      </c>
+      <c r="S21" s="21">
+        <f t="shared" ref="S21:S27" si="42">(E21-E20)/($G21-$G20)</f>
+        <v>11.03448275862069</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
+      <c r="A22" s="1">
+        <v>45397.666666666664</v>
+      </c>
+      <c r="B22" s="4">
+        <v>305</v>
+      </c>
+      <c r="C22" s="4">
+        <v>282</v>
+      </c>
+      <c r="D22" s="4">
+        <v>250</v>
+      </c>
+      <c r="E22" s="4">
+        <v>282</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="2"/>
+        <v>45397.666666666664</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="31"/>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="32"/>
+        <v>0.6987951807228916</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="33"/>
+        <v>1.3148148148148149</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="shared" si="34"/>
+        <v>0.75155279503105588</v>
+      </c>
+      <c r="L22" s="20">
+        <f t="shared" si="35"/>
+        <v>130</v>
+      </c>
+      <c r="M22" s="20">
+        <f t="shared" si="36"/>
+        <v>116</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" si="37"/>
+        <v>174</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" si="38"/>
+        <v>121</v>
+      </c>
+      <c r="P22" s="21">
+        <f>(B22-B21)/(G22-G21)</f>
+        <v>34.285714285999383</v>
+      </c>
+      <c r="Q22" s="21">
+        <f t="shared" si="40"/>
+        <v>-13.714285714399754</v>
+      </c>
+      <c r="R22" s="21">
+        <f t="shared" si="41"/>
+        <v>37.71428571459932</v>
+      </c>
+      <c r="S22" s="21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45398.375</v>
+      </c>
+      <c r="B23" s="4">
+        <v>315</v>
+      </c>
+      <c r="C23" s="4">
+        <v>299</v>
+      </c>
+      <c r="D23" s="4">
+        <v>266</v>
+      </c>
+      <c r="E23" s="4">
+        <v>306</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="2"/>
+        <v>45398.375</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="32"/>
+        <v>0.8012048192771084</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="33"/>
+        <v>1.4629629629629628</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="shared" si="34"/>
+        <v>0.90062111801242239</v>
+      </c>
+      <c r="L23" s="20">
+        <f t="shared" si="35"/>
+        <v>140</v>
+      </c>
+      <c r="M23" s="20">
+        <f t="shared" si="36"/>
+        <v>133</v>
+      </c>
+      <c r="N23" s="20">
+        <f t="shared" si="37"/>
+        <v>198</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="38"/>
+        <v>145</v>
+      </c>
+      <c r="P23" s="21">
+        <f t="shared" si="39"/>
+        <v>14.117647058775191</v>
+      </c>
+      <c r="Q23" s="21">
+        <f t="shared" si="40"/>
+        <v>23.999999999917826</v>
+      </c>
+      <c r="R23" s="21">
+        <f t="shared" si="41"/>
+        <v>22.588235294040306</v>
+      </c>
+      <c r="S23" s="21">
+        <f t="shared" si="42"/>
+        <v>33.882352941060461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45398.854166666664</v>
+      </c>
+      <c r="B24" s="4">
+        <v>317</v>
+      </c>
+      <c r="C24" s="4">
+        <v>298</v>
+      </c>
+      <c r="D24" s="4">
+        <v>261</v>
+      </c>
+      <c r="E24" s="4">
+        <v>301</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="2"/>
+        <v>45398.854166666664</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="31"/>
+        <v>0.81142857142857139</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="32"/>
+        <v>0.79518072289156616</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="33"/>
+        <v>1.4166666666666665</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="shared" si="34"/>
+        <v>0.86956521739130443</v>
+      </c>
+      <c r="L24" s="20">
+        <f t="shared" si="35"/>
+        <v>142</v>
+      </c>
+      <c r="M24" s="20">
+        <f t="shared" si="36"/>
+        <v>132</v>
+      </c>
+      <c r="N24" s="20">
+        <f t="shared" si="37"/>
+        <v>193</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="38"/>
+        <v>140</v>
+      </c>
+      <c r="P24" s="21">
+        <f t="shared" si="39"/>
+        <v>4.173913043499387</v>
+      </c>
+      <c r="Q24" s="21">
+        <f t="shared" si="40"/>
+        <v>-2.0869565217496935</v>
+      </c>
+      <c r="R24" s="21">
+        <f t="shared" si="41"/>
+        <v>-10.434782608748469</v>
+      </c>
+      <c r="S24" s="21">
+        <f t="shared" si="42"/>
+        <v>-10.434782608748469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45399.625</v>
+      </c>
+      <c r="B25" s="4">
+        <v>335</v>
+      </c>
+      <c r="C25" s="4">
+        <v>310</v>
+      </c>
+      <c r="D25" s="4">
+        <v>267</v>
+      </c>
+      <c r="E25" s="4">
+        <v>305</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="2"/>
+        <v>45399.625</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="31"/>
+        <v>0.91428571428571437</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="32"/>
+        <v>0.8674698795180722</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="33"/>
+        <v>1.4722222222222223</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="shared" si="34"/>
+        <v>0.89440993788819867</v>
+      </c>
+      <c r="L25" s="20">
+        <f t="shared" si="35"/>
+        <v>160</v>
+      </c>
+      <c r="M25" s="20">
+        <f t="shared" si="36"/>
+        <v>144</v>
+      </c>
+      <c r="N25" s="20">
+        <f t="shared" si="37"/>
+        <v>197</v>
+      </c>
+      <c r="O25" s="20">
+        <f t="shared" si="38"/>
+        <v>144</v>
+      </c>
+      <c r="P25" s="21">
+        <f t="shared" si="39"/>
+        <v>23.351351351277881</v>
+      </c>
+      <c r="Q25" s="21">
+        <f t="shared" si="40"/>
+        <v>15.567567567518587</v>
+      </c>
+      <c r="R25" s="21">
+        <f t="shared" si="41"/>
+        <v>7.7837837837592936</v>
+      </c>
+      <c r="S25" s="21">
+        <f t="shared" si="42"/>
+        <v>5.1891891891728621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45399.833333333336</v>
+      </c>
+      <c r="B26" s="4">
+        <v>330</v>
+      </c>
+      <c r="C26" s="4">
+        <v>310</v>
+      </c>
+      <c r="D26" s="4">
+        <v>280</v>
+      </c>
+      <c r="E26" s="4">
+        <v>327</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="2"/>
+        <v>45399.833333333336</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="31"/>
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="32"/>
+        <v>0.8674698795180722</v>
+      </c>
+      <c r="J26" s="13">
+        <f t="shared" si="33"/>
+        <v>1.5925925925925926</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="shared" si="34"/>
+        <v>1.031055900621118</v>
+      </c>
+      <c r="L26" s="20">
+        <f t="shared" si="35"/>
+        <v>155</v>
+      </c>
+      <c r="M26" s="20">
+        <f t="shared" si="36"/>
+        <v>144</v>
+      </c>
+      <c r="N26" s="20">
+        <f t="shared" si="37"/>
+        <v>219</v>
+      </c>
+      <c r="O26" s="20">
+        <f t="shared" si="38"/>
+        <v>166</v>
+      </c>
+      <c r="P26" s="21">
+        <f t="shared" si="39"/>
+        <v>-23.999999999720604</v>
+      </c>
+      <c r="Q26" s="21">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="21">
+        <f t="shared" si="41"/>
+        <v>62.399999999273568</v>
+      </c>
+      <c r="S26" s="21">
+        <f t="shared" si="42"/>
+        <v>105.59999999877066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45400.875</v>
+      </c>
+      <c r="B27" s="4">
+        <v>356</v>
+      </c>
+      <c r="C27" s="4">
+        <v>331</v>
+      </c>
+      <c r="D27" s="4">
+        <v>288</v>
+      </c>
+      <c r="E27" s="4">
+        <v>330</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="2"/>
+        <v>45400.875</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="31"/>
+        <v>1.0342857142857143</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="32"/>
+        <v>0.99397590361445776</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" si="33"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="34"/>
+        <v>1.0496894409937889</v>
+      </c>
+      <c r="L27" s="20">
+        <f t="shared" si="35"/>
+        <v>181</v>
+      </c>
+      <c r="M27" s="20">
+        <f t="shared" si="36"/>
+        <v>165</v>
+      </c>
+      <c r="N27" s="20">
+        <f t="shared" si="37"/>
+        <v>222</v>
+      </c>
+      <c r="O27" s="20">
+        <f t="shared" si="38"/>
+        <v>169</v>
+      </c>
+      <c r="P27" s="21">
+        <f t="shared" si="39"/>
+        <v>24.960000000058116</v>
+      </c>
+      <c r="Q27" s="21">
+        <f t="shared" si="40"/>
+        <v>20.160000000046939</v>
+      </c>
+      <c r="R27" s="21">
+        <f t="shared" si="41"/>
+        <v>7.6800000000178814</v>
+      </c>
+      <c r="S27" s="21">
+        <f t="shared" si="42"/>
+        <v>2.8800000000067056</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kattungar.xlsx
+++ b/kattungar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\git\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB880F5-05E1-4F95-8469-96A5F8872620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B17E8D4-58F5-41B7-A1B5-FEE8CDC819A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{36296AD2-3383-4412-B526-17245D0827CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Sp</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Alla ögon öppna, på den svarta lite mindre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -331,98 +334,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$H$2:$H$29</c:f>
+              <c:f>Blad1!$H$2:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -500,6 +523,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.0342857142857143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0171428571428573</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1085714285714285</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1828571428571428</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2742857142857145</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3485714285714288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,98 +597,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$I$2:$I$29</c:f>
+              <c:f>Blad1!$I$2:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -725,6 +786,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.99397590361445776</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0240963855421685</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1084337349397591</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1084337349397591</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2289156626506026</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3132530120481927</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4578313253012047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,98 +858,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$29</c:f>
+              <c:f>Blad1!$J$2:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -948,6 +1047,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7685185185185186</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9907407407407409</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.175925925925926</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2592592592592591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,98 +1115,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$K$2:$K$29</c:f>
+              <c:f>Blad1!$K$2:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1167,6 +1304,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.0496894409937889</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1304347826086958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2049689440993787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2484472049689441</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4658385093167703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5403726708074532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,98 +1646,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$29</c:f>
+              <c:f>Blad1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>175</c:v>
                 </c:pt>
@@ -1660,6 +1835,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1716,98 +1909,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$29</c:f>
+              <c:f>Blad1!$C$2:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>166</c:v>
                 </c:pt>
@@ -1885,6 +2098,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1939,98 +2170,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$29</c:f>
+              <c:f>Blad1!$D$2:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>108</c:v>
                 </c:pt>
@@ -2108,6 +2359,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,98 +2427,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$29</c:f>
+              <c:f>Blad1!$E$2:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>161</c:v>
                 </c:pt>
@@ -2327,6 +2616,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2653,98 +2960,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$P$2:$P$29</c:f>
+              <c:f>Blad1!$P$2:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2822,6 +3149,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>24.960000000058116</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.382978723449789</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.352941176407747</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.01877934269673</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.952076677377468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2876,98 +3221,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$Q$2:$Q$29</c:f>
+              <c:f>Blad1!$Q$2:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3045,6 +3410,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>20.160000000046939</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.297872340460946</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.235294117550382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.516431924859639</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.60383386592763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3099,98 +3482,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$R$2:$R$29</c:f>
+              <c:f>Blad1!$R$2:$R$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3268,6 +3671,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.6800000000178814</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0851063829888421</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.529411764652711</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.023474178370911</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.351437699722862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3318,98 +3739,118 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$G$2:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+            <c:strRef>
+              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45388.458333333336</c:v>
+                  <c:v>45388,46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45388.607638888891</c:v>
+                  <c:v>45388,61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45388.875</c:v>
+                  <c:v>45388,88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45389.416666666664</c:v>
+                  <c:v>45389,42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45389.708333333336</c:v>
+                  <c:v>45389,71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45389.875</c:v>
+                  <c:v>45389,88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45390.315972222219</c:v>
+                  <c:v>45390,32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45390.722222222219</c:v>
+                  <c:v>45390,72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45390.9375</c:v>
+                  <c:v>45390,94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45391.333333333336</c:v>
+                  <c:v>45391,33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45391.770833333336</c:v>
+                  <c:v>45391,77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45392.354166666664</c:v>
+                  <c:v>45392,35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45392.75</c:v>
+                  <c:v>45392,75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45393.708333333336</c:v>
+                  <c:v>45393,71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45393.9375</c:v>
+                  <c:v>45393,94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45394.333333333336</c:v>
+                  <c:v>45394,33</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45394.895833333336</c:v>
+                  <c:v>45394,90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45395.607638888891</c:v>
+                  <c:v>45395,61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45396.46875</c:v>
+                  <c:v>45396,47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45397.375</c:v>
+                  <c:v>45397,38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45397.666666666664</c:v>
+                  <c:v>45397,67</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45398.375</c:v>
+                  <c:v>45398,38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45398.854166666664</c:v>
+                  <c:v>45398,85</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45399.625</c:v>
+                  <c:v>45399,63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45399.833333333336</c:v>
+                  <c:v>45399,83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45400.875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>45400,88</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45401,50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45402,48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45402,79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45403,50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45404,83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45405,70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$S$2:$S$29</c:f>
+              <c:f>Blad1!$S$2:$S$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3487,6 +3928,24 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2.8800000000067056</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.255319148966526</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.4705882352651152</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.78403755863782</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.801916932963815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5387,13 +5846,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5425,13 +5884,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5463,13 +5922,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5817,11 +6276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33456F3-4980-430D-BFBA-60DE0169B3D8}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5980,31 +6439,31 @@
         <v>167</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G27" si="2">A3</f>
+        <f t="shared" ref="G3:G33" si="2">A3</f>
         <v>45388.607638888891</v>
       </c>
       <c r="H3" s="13">
-        <f t="shared" ref="H3:H25" si="3">B3/B$2-1</f>
+        <f t="shared" ref="H3:H20" si="3">B3/B$2-1</f>
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <f t="shared" ref="I3:I25" si="4">C3/C$2-1</f>
+        <f t="shared" ref="I3:I20" si="4">C3/C$2-1</f>
         <v>-6.0240963855421326E-3</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J25" si="5">D3/D$2-1</f>
+        <f t="shared" ref="J3:J20" si="5">D3/D$2-1</f>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K25" si="6">E3/E$2-1</f>
+        <f t="shared" ref="K3:K20" si="6">E3/E$2-1</f>
         <v>3.7267080745341685E-2</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:L25" si="7">B3-B$2</f>
+        <f t="shared" ref="L3:L20" si="7">B3-B$2</f>
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M25" si="8">C3-C$2</f>
+        <f t="shared" ref="M3:M20" si="8">C3-C$2</f>
         <v>-1</v>
       </c>
       <c r="N3" s="20">
@@ -6991,7 +7450,7 @@
         <v>138</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" ref="O17:O25" si="18">E17-E$2</f>
+        <f t="shared" ref="O17:O20" si="18">E17-E$2</f>
         <v>85</v>
       </c>
       <c r="P17" s="21">
@@ -7242,35 +7701,35 @@
         <v>45397.375</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" ref="H21:H27" si="31">B21/B$2-1</f>
+        <f t="shared" ref="H21:H33" si="31">B21/B$2-1</f>
         <v>0.68571428571428572</v>
       </c>
       <c r="I21" s="13">
-        <f t="shared" ref="I21:I27" si="32">C21/C$2-1</f>
+        <f t="shared" ref="I21:I33" si="32">C21/C$2-1</f>
         <v>0.72289156626506035</v>
       </c>
       <c r="J21" s="13">
-        <f t="shared" ref="J21:J27" si="33">D21/D$2-1</f>
+        <f t="shared" ref="J21:J33" si="33">D21/D$2-1</f>
         <v>1.2129629629629628</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" ref="K21:K27" si="34">E21/E$2-1</f>
+        <f t="shared" ref="K21:K33" si="34">E21/E$2-1</f>
         <v>0.75155279503105588</v>
       </c>
       <c r="L21" s="20">
-        <f t="shared" ref="L21:L27" si="35">B21-B$2</f>
+        <f t="shared" ref="L21:L33" si="35">B21-B$2</f>
         <v>120</v>
       </c>
       <c r="M21" s="20">
-        <f t="shared" ref="M21:M27" si="36">C21-C$2</f>
+        <f t="shared" ref="M21:M33" si="36">C21-C$2</f>
         <v>120</v>
       </c>
       <c r="N21" s="20">
-        <f t="shared" ref="N21:N27" si="37">E21-D$2</f>
+        <f t="shared" ref="N21:N33" si="37">E21-D$2</f>
         <v>174</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" ref="O21:O27" si="38">E21-E$2</f>
+        <f t="shared" ref="O21:O33" si="38">E21-E$2</f>
         <v>121</v>
       </c>
       <c r="P21" s="21">
@@ -7705,33 +8164,463 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
+      <c r="A28" s="1">
+        <v>45401.5</v>
+      </c>
+      <c r="B28" s="4">
+        <v>353</v>
+      </c>
+      <c r="C28" s="4">
+        <v>336</v>
+      </c>
+      <c r="D28" s="4">
+        <v>299</v>
+      </c>
+      <c r="E28" s="4">
+        <v>343</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
+        <v>45401.5</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="31"/>
+        <v>1.0171428571428573</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="32"/>
+        <v>1.0240963855421685</v>
+      </c>
+      <c r="J28" s="13">
+        <f t="shared" si="33"/>
+        <v>1.7685185185185186</v>
+      </c>
+      <c r="K28" s="13">
+        <f t="shared" si="34"/>
+        <v>1.1304347826086958</v>
+      </c>
+      <c r="L28" s="20">
+        <f t="shared" si="35"/>
+        <v>178</v>
+      </c>
+      <c r="M28" s="20">
+        <f t="shared" si="36"/>
+        <v>170</v>
+      </c>
+      <c r="N28" s="20">
+        <f t="shared" si="37"/>
+        <v>235</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" si="38"/>
+        <v>182</v>
+      </c>
+      <c r="P28" s="21">
+        <f t="shared" ref="P28" si="43">(B28-B27)/(G28-G27)</f>
+        <v>-4.8</v>
+      </c>
+      <c r="Q28" s="21">
+        <f t="shared" ref="Q28" si="44">(C28-C27)/($G28-$G27)</f>
+        <v>8</v>
+      </c>
+      <c r="R28" s="21">
+        <f t="shared" ref="R28" si="45">(D28-D27)/($G28-$G27)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="S28" s="21">
+        <f t="shared" ref="S28" si="46">(E28-E27)/($G28-$G27)</f>
+        <v>20.8</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
+      <c r="A29" s="1">
+        <v>45402.479166666664</v>
+      </c>
+      <c r="B29" s="4">
+        <v>371</v>
+      </c>
+      <c r="C29" s="4">
+        <v>350</v>
+      </c>
+      <c r="D29" s="4">
+        <v>303</v>
+      </c>
+      <c r="E29" s="4">
+        <v>355</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="2"/>
+        <v>45402.479166666664</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="31"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="32"/>
+        <v>1.1084337349397591</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="33"/>
+        <v>1.8055555555555554</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="shared" si="34"/>
+        <v>1.2049689440993787</v>
+      </c>
+      <c r="L29" s="20">
+        <f t="shared" si="35"/>
+        <v>196</v>
+      </c>
+      <c r="M29" s="20">
+        <f t="shared" si="36"/>
+        <v>184</v>
+      </c>
+      <c r="N29" s="20">
+        <f t="shared" si="37"/>
+        <v>247</v>
+      </c>
+      <c r="O29" s="20">
+        <f t="shared" si="38"/>
+        <v>194</v>
+      </c>
+      <c r="P29" s="21">
+        <f t="shared" ref="P29:P33" si="47">(B29-B28)/(G29-G28)</f>
+        <v>18.382978723449789</v>
+      </c>
+      <c r="Q29" s="21">
+        <f t="shared" ref="Q29:Q33" si="48">(C29-C28)/($G29-$G28)</f>
+        <v>14.297872340460946</v>
+      </c>
+      <c r="R29" s="21">
+        <f t="shared" ref="R29:R33" si="49">(D29-D28)/($G29-$G28)</f>
+        <v>4.0851063829888421</v>
+      </c>
+      <c r="S29" s="21">
+        <f t="shared" ref="S29:S33" si="50">(E29-E28)/($G29-$G28)</f>
+        <v>12.255319148966526</v>
+      </c>
     </row>
-    <row r="30" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45402.791666666664</v>
+      </c>
+      <c r="B30" s="4">
+        <v>369</v>
+      </c>
+      <c r="C30" s="4">
+        <v>350</v>
+      </c>
+      <c r="D30" s="4">
+        <v>312</v>
+      </c>
+      <c r="E30" s="4">
+        <v>362</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="2"/>
+        <v>45402.791666666664</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" si="31"/>
+        <v>1.1085714285714285</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="32"/>
+        <v>1.1084337349397591</v>
+      </c>
+      <c r="J30" s="13">
+        <f t="shared" si="33"/>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="K30" s="13">
+        <f t="shared" si="34"/>
+        <v>1.2484472049689441</v>
+      </c>
+      <c r="L30" s="20">
+        <f t="shared" si="35"/>
+        <v>194</v>
+      </c>
+      <c r="M30" s="20">
+        <f t="shared" si="36"/>
+        <v>184</v>
+      </c>
+      <c r="N30" s="20">
+        <f t="shared" si="37"/>
+        <v>254</v>
+      </c>
+      <c r="O30" s="20">
+        <f t="shared" si="38"/>
+        <v>201</v>
+      </c>
+      <c r="P30" s="21">
+        <f t="shared" si="47"/>
+        <v>-6.4</v>
+      </c>
+      <c r="Q30" s="21">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="21">
+        <f t="shared" si="49"/>
+        <v>28.8</v>
+      </c>
+      <c r="S30" s="21">
+        <f t="shared" si="50"/>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45403.5</v>
+      </c>
+      <c r="B31" s="4">
+        <v>382</v>
+      </c>
+      <c r="C31" s="4">
+        <v>370</v>
+      </c>
+      <c r="D31" s="4">
+        <v>323</v>
+      </c>
+      <c r="E31" s="4">
+        <v>368</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>45403.5</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="31"/>
+        <v>1.1828571428571428</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="32"/>
+        <v>1.2289156626506026</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="33"/>
+        <v>1.9907407407407409</v>
+      </c>
+      <c r="K31" s="13">
+        <f t="shared" si="34"/>
+        <v>1.2857142857142856</v>
+      </c>
+      <c r="L31" s="20">
+        <f t="shared" si="35"/>
+        <v>207</v>
+      </c>
+      <c r="M31" s="20">
+        <f t="shared" si="36"/>
+        <v>204</v>
+      </c>
+      <c r="N31" s="20">
+        <f t="shared" si="37"/>
+        <v>260</v>
+      </c>
+      <c r="O31" s="20">
+        <f t="shared" si="38"/>
+        <v>207</v>
+      </c>
+      <c r="P31" s="21">
+        <f t="shared" si="47"/>
+        <v>18.352941176407747</v>
+      </c>
+      <c r="Q31" s="21">
+        <f t="shared" si="48"/>
+        <v>28.235294117550382</v>
+      </c>
+      <c r="R31" s="21">
+        <f t="shared" si="49"/>
+        <v>15.529411764652711</v>
+      </c>
+      <c r="S31" s="21">
+        <f t="shared" si="50"/>
+        <v>8.4705882352651152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45404.831250000003</v>
+      </c>
+      <c r="B32" s="4">
+        <v>398</v>
+      </c>
+      <c r="C32" s="4">
+        <v>384</v>
+      </c>
+      <c r="D32" s="4">
+        <v>343</v>
+      </c>
+      <c r="E32" s="4">
+        <v>397</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="2"/>
+        <v>45404.831250000003</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="31"/>
+        <v>1.2742857142857145</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="32"/>
+        <v>1.3132530120481927</v>
+      </c>
+      <c r="J32" s="13">
+        <f t="shared" si="33"/>
+        <v>2.175925925925926</v>
+      </c>
+      <c r="K32" s="13">
+        <f t="shared" si="34"/>
+        <v>1.4658385093167703</v>
+      </c>
+      <c r="L32" s="20">
+        <f t="shared" si="35"/>
+        <v>223</v>
+      </c>
+      <c r="M32" s="20">
+        <f t="shared" si="36"/>
+        <v>218</v>
+      </c>
+      <c r="N32" s="20">
+        <f t="shared" si="37"/>
+        <v>289</v>
+      </c>
+      <c r="O32" s="20">
+        <f t="shared" si="38"/>
+        <v>236</v>
+      </c>
+      <c r="P32" s="21">
+        <f t="shared" si="47"/>
+        <v>12.01877934269673</v>
+      </c>
+      <c r="Q32" s="21">
+        <f t="shared" si="48"/>
+        <v>10.516431924859639</v>
+      </c>
+      <c r="R32" s="21">
+        <f t="shared" si="49"/>
+        <v>15.023474178370911</v>
+      </c>
+      <c r="S32" s="21">
+        <f t="shared" si="50"/>
+        <v>21.78403755863782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45405.700694444444</v>
+      </c>
+      <c r="B33" s="4">
+        <v>411</v>
+      </c>
+      <c r="C33" s="4">
+        <v>408</v>
+      </c>
+      <c r="D33" s="4">
+        <v>352</v>
+      </c>
+      <c r="E33" s="4">
+        <v>409</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>45405.700694444444</v>
+      </c>
+      <c r="H33" s="13">
+        <f t="shared" si="31"/>
+        <v>1.3485714285714288</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="32"/>
+        <v>1.4578313253012047</v>
+      </c>
+      <c r="J33" s="13">
+        <f t="shared" si="33"/>
+        <v>2.2592592592592591</v>
+      </c>
+      <c r="K33" s="13">
+        <f t="shared" si="34"/>
+        <v>1.5403726708074532</v>
+      </c>
+      <c r="L33" s="20">
+        <f t="shared" si="35"/>
+        <v>236</v>
+      </c>
+      <c r="M33" s="20">
+        <f t="shared" si="36"/>
+        <v>242</v>
+      </c>
+      <c r="N33" s="20">
+        <f t="shared" si="37"/>
+        <v>301</v>
+      </c>
+      <c r="O33" s="20">
+        <f t="shared" si="38"/>
+        <v>248</v>
+      </c>
+      <c r="P33" s="21">
+        <f t="shared" si="47"/>
+        <v>14.952076677377468</v>
+      </c>
+      <c r="Q33" s="21">
+        <f t="shared" si="48"/>
+        <v>27.60383386592763</v>
+      </c>
+      <c r="R33" s="21">
+        <f t="shared" si="49"/>
+        <v>10.351437699722862</v>
+      </c>
+      <c r="S33" s="21">
+        <f t="shared" si="50"/>
+        <v>13.801916932963815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+    </row>
+    <row r="37" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kattungar.xlsx
+++ b/kattungar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\git\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B17E8D4-58F5-41B7-A1B5-FEE8CDC819A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A12560-0EB0-408A-B98C-DAAF21BADFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{36296AD2-3383-4412-B526-17245D0827CA}"/>
   </bookViews>
@@ -335,9 +335,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -434,7 +434,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -442,10 +460,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$H$2:$H$36</c:f>
+              <c:f>Blad1!$H$2:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -541,6 +559,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.3485714285714288</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4057142857142857</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4914285714285715</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6457142857142859</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7771428571428571</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7542857142857144</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8285714285714287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -598,9 +634,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -697,7 +733,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -705,10 +759,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$I$2:$I$36</c:f>
+              <c:f>Blad1!$I$2:$I$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -804,6 +858,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.4578313253012047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.536144578313253</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.572289156626506</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7289156626506026</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7771084337349397</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8734939759036147</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8975903614457832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,9 +931,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -958,7 +1030,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -966,10 +1056,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$36</c:f>
+              <c:f>Blad1!$J$2:$J$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1065,6 +1155,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2.2592592592592591</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3796296296296298</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4537037037037037</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.6851851851851851</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7685185185185186</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8703703703703702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0740740740740744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,9 +1224,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -1215,7 +1323,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -1223,10 +1349,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$K$2:$K$36</c:f>
+              <c:f>Blad1!$K$2:$K$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1322,6 +1448,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.5403726708074532</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6149068322981366</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7080745341614905</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0248447204968945</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.012422360248447</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0869565217391304</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2546583850931676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,9 +1791,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -1746,7 +1890,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -1754,10 +1916,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$36</c:f>
+              <c:f>Blad1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>175</c:v>
                 </c:pt>
@@ -1853,6 +2015,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1910,9 +2090,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -2009,7 +2189,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -2017,10 +2215,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$36</c:f>
+              <c:f>Blad1!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>166</c:v>
                 </c:pt>
@@ -2116,6 +2314,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2171,9 +2387,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -2270,7 +2486,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -2278,10 +2512,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$36</c:f>
+              <c:f>Blad1!$D$2:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>108</c:v>
                 </c:pt>
@@ -2377,6 +2611,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2428,9 +2680,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -2527,7 +2779,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -2535,10 +2805,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$36</c:f>
+              <c:f>Blad1!$E$2:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>161</c:v>
                 </c:pt>
@@ -2634,6 +2904,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2961,9 +3249,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -3060,7 +3348,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -3068,10 +3374,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$P$2:$P$36</c:f>
+              <c:f>Blad1!$P$2:$P$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3167,6 +3473,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>14.952076677377468</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.580455547357234</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.584905660407198</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.923076923021128</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.230769230864293</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.8571428571143471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.181818181855704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3222,9 +3546,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -3321,7 +3645,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -3329,10 +3671,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$Q$2:$Q$36</c:f>
+              <c:f>Blad1!$Q$2:$Q$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3428,6 +3770,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>27.60383386592763</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.754592211564404</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4339622641628793</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.999999999946269</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3846153846484492</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.428571428457388</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3636363636479087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3483,9 +3843,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -3582,7 +3942,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -3590,10 +3968,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$R$2:$R$36</c:f>
+              <c:f>Blad1!$R$2:$R$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3689,6 +4067,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>10.351437699722862</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.754592211564404</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2452830188838391</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.076923076871413</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3076923077295053</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.857142857064456</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.000000000063498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,9 +4136,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$36</c:f>
+              <c:f>Blad1!$G$2:$G$41</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -3839,7 +4235,25 @@
                 <c:pt idx="31">
                   <c:v>45405,70</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>45406,65</c:v>
+                </c:pt>
                 <c:pt idx="33">
+                  <c:v>45407,75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45408,83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45409,92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45410,50</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45411,42</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -3847,10 +4261,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$S$2:$S$36</c:f>
+              <c:f>Blad1!$S$2:$S$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3946,6 +4360,24 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>13.801916932963815</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.69654665682868</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.584905660407198</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>47.076923076817685</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.8461538461621123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.571428571343041</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.454545454623386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5846,13 +6278,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5884,13 +6316,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5922,13 +6354,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6276,11 +6708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33456F3-4980-430D-BFBA-60DE0169B3D8}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="P33" sqref="P33:S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6439,7 +6871,7 @@
         <v>167</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G33" si="2">A3</f>
+        <f t="shared" ref="G3:G39" si="2">A3</f>
         <v>45388.607638888891</v>
       </c>
       <c r="H3" s="13">
@@ -7701,35 +8133,35 @@
         <v>45397.375</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" ref="H21:H33" si="31">B21/B$2-1</f>
+        <f t="shared" ref="H21:H39" si="31">B21/B$2-1</f>
         <v>0.68571428571428572</v>
       </c>
       <c r="I21" s="13">
-        <f t="shared" ref="I21:I33" si="32">C21/C$2-1</f>
+        <f t="shared" ref="I21:I39" si="32">C21/C$2-1</f>
         <v>0.72289156626506035</v>
       </c>
       <c r="J21" s="13">
-        <f t="shared" ref="J21:J33" si="33">D21/D$2-1</f>
+        <f t="shared" ref="J21:J39" si="33">D21/D$2-1</f>
         <v>1.2129629629629628</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" ref="K21:K33" si="34">E21/E$2-1</f>
+        <f t="shared" ref="K21:K39" si="34">E21/E$2-1</f>
         <v>0.75155279503105588</v>
       </c>
       <c r="L21" s="20">
-        <f t="shared" ref="L21:L33" si="35">B21-B$2</f>
+        <f t="shared" ref="L21:L39" si="35">B21-B$2</f>
         <v>120</v>
       </c>
       <c r="M21" s="20">
-        <f t="shared" ref="M21:M33" si="36">C21-C$2</f>
+        <f t="shared" ref="M21:M39" si="36">C21-C$2</f>
         <v>120</v>
       </c>
       <c r="N21" s="20">
-        <f t="shared" ref="N21:N33" si="37">E21-D$2</f>
+        <f t="shared" ref="N21:N39" si="37">E21-D$2</f>
         <v>174</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" ref="O21:O33" si="38">E21-E$2</f>
+        <f t="shared" ref="O21:O39" si="38">E21-E$2</f>
         <v>121</v>
       </c>
       <c r="P21" s="21">
@@ -8578,49 +9010,450 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
+      <c r="A34" s="1">
+        <v>45406.645833333336</v>
+      </c>
+      <c r="B34" s="4">
+        <v>421</v>
+      </c>
+      <c r="C34" s="4">
+        <v>421</v>
+      </c>
+      <c r="D34" s="4">
+        <v>365</v>
+      </c>
+      <c r="E34" s="4">
+        <v>421</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>45406.645833333336</v>
+      </c>
+      <c r="H34" s="13">
+        <f t="shared" si="31"/>
+        <v>1.4057142857142857</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" si="32"/>
+        <v>1.536144578313253</v>
+      </c>
+      <c r="J34" s="13">
+        <f t="shared" si="33"/>
+        <v>2.3796296296296298</v>
+      </c>
+      <c r="K34" s="13">
+        <f t="shared" si="34"/>
+        <v>1.6149068322981366</v>
+      </c>
+      <c r="L34" s="20">
+        <f t="shared" si="35"/>
+        <v>246</v>
+      </c>
+      <c r="M34" s="20">
+        <f t="shared" si="36"/>
+        <v>255</v>
+      </c>
+      <c r="N34" s="20">
+        <f t="shared" si="37"/>
+        <v>313</v>
+      </c>
+      <c r="O34" s="20">
+        <f t="shared" si="38"/>
+        <v>260</v>
+      </c>
+      <c r="P34" s="21">
+        <f t="shared" ref="P34:P39" si="51">(B34-B33)/(G34-G33)</f>
+        <v>10.580455547357234</v>
+      </c>
+      <c r="Q34" s="21">
+        <f t="shared" ref="Q34:Q39" si="52">(C34-C33)/($G34-$G33)</f>
+        <v>13.754592211564404</v>
+      </c>
+      <c r="R34" s="21">
+        <f t="shared" ref="R34:R39" si="53">(D34-D33)/($G34-$G33)</f>
+        <v>13.754592211564404</v>
+      </c>
+      <c r="S34" s="21">
+        <f t="shared" ref="S34:S39" si="54">(E34-E33)/($G34-$G33)</f>
+        <v>12.69654665682868</v>
+      </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
+      <c r="A35" s="1">
+        <v>45407.75</v>
+      </c>
+      <c r="B35" s="4">
+        <v>436</v>
+      </c>
+      <c r="C35" s="4">
+        <v>427</v>
+      </c>
+      <c r="D35" s="4">
+        <v>373</v>
+      </c>
+      <c r="E35" s="4">
+        <v>436</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="2"/>
+        <v>45407.75</v>
+      </c>
+      <c r="H35" s="13">
+        <f t="shared" si="31"/>
+        <v>1.4914285714285715</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="32"/>
+        <v>1.572289156626506</v>
+      </c>
+      <c r="J35" s="13">
+        <f t="shared" si="33"/>
+        <v>2.4537037037037037</v>
+      </c>
+      <c r="K35" s="13">
+        <f t="shared" si="34"/>
+        <v>1.7080745341614905</v>
+      </c>
+      <c r="L35" s="20">
+        <f t="shared" si="35"/>
+        <v>261</v>
+      </c>
+      <c r="M35" s="20">
+        <f t="shared" si="36"/>
+        <v>261</v>
+      </c>
+      <c r="N35" s="20">
+        <f t="shared" si="37"/>
+        <v>328</v>
+      </c>
+      <c r="O35" s="20">
+        <f t="shared" si="38"/>
+        <v>275</v>
+      </c>
+      <c r="P35" s="21">
+        <f t="shared" si="51"/>
+        <v>13.584905660407198</v>
+      </c>
+      <c r="Q35" s="21">
+        <f t="shared" si="52"/>
+        <v>5.4339622641628793</v>
+      </c>
+      <c r="R35" s="21">
+        <f t="shared" si="53"/>
+        <v>7.2452830188838391</v>
+      </c>
+      <c r="S35" s="21">
+        <f t="shared" si="54"/>
+        <v>13.584905660407198</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
+      <c r="A36" s="1">
+        <v>45408.833333333336</v>
+      </c>
+      <c r="B36" s="4">
+        <v>463</v>
+      </c>
+      <c r="C36" s="4">
+        <v>453</v>
+      </c>
+      <c r="D36" s="4">
+        <v>398</v>
+      </c>
+      <c r="E36" s="4">
+        <v>487</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>45408.833333333336</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="31"/>
+        <v>1.6457142857142859</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="32"/>
+        <v>1.7289156626506026</v>
+      </c>
+      <c r="J36" s="13">
+        <f t="shared" si="33"/>
+        <v>2.6851851851851851</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="shared" si="34"/>
+        <v>2.0248447204968945</v>
+      </c>
+      <c r="L36" s="20">
+        <f t="shared" si="35"/>
+        <v>288</v>
+      </c>
+      <c r="M36" s="20">
+        <f t="shared" si="36"/>
+        <v>287</v>
+      </c>
+      <c r="N36" s="20">
+        <f t="shared" si="37"/>
+        <v>379</v>
+      </c>
+      <c r="O36" s="20">
+        <f t="shared" si="38"/>
+        <v>326</v>
+      </c>
+      <c r="P36" s="21">
+        <f t="shared" si="51"/>
+        <v>24.923076923021128</v>
+      </c>
+      <c r="Q36" s="21">
+        <f t="shared" si="52"/>
+        <v>23.999999999946269</v>
+      </c>
+      <c r="R36" s="21">
+        <f t="shared" si="53"/>
+        <v>23.076923076871413</v>
+      </c>
+      <c r="S36" s="21">
+        <f t="shared" si="54"/>
+        <v>47.076923076817685</v>
+      </c>
     </row>
-    <row r="37" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45409.916666666664</v>
+      </c>
+      <c r="B37" s="4">
+        <v>486</v>
+      </c>
+      <c r="C37" s="4">
+        <v>461</v>
+      </c>
+      <c r="D37" s="4">
+        <v>407</v>
+      </c>
+      <c r="E37" s="4">
+        <v>485</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>45409.916666666664</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" si="31"/>
+        <v>1.7771428571428571</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="32"/>
+        <v>1.7771084337349397</v>
+      </c>
+      <c r="J37" s="13">
+        <f t="shared" si="33"/>
+        <v>2.7685185185185186</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="shared" si="34"/>
+        <v>2.012422360248447</v>
+      </c>
+      <c r="L37" s="20">
+        <f t="shared" si="35"/>
+        <v>311</v>
+      </c>
+      <c r="M37" s="20">
+        <f t="shared" si="36"/>
+        <v>295</v>
+      </c>
+      <c r="N37" s="20">
+        <f t="shared" si="37"/>
+        <v>377</v>
+      </c>
+      <c r="O37" s="20">
+        <f t="shared" si="38"/>
+        <v>324</v>
+      </c>
+      <c r="P37" s="21">
+        <f t="shared" si="51"/>
+        <v>21.230769230864293</v>
+      </c>
+      <c r="Q37" s="21">
+        <f t="shared" si="52"/>
+        <v>7.3846153846484492</v>
+      </c>
+      <c r="R37" s="21">
+        <f t="shared" si="53"/>
+        <v>8.3076923077295053</v>
+      </c>
+      <c r="S37" s="21">
+        <f t="shared" si="54"/>
+        <v>-1.8461538461621123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45410.5</v>
+      </c>
+      <c r="B38" s="4">
+        <v>482</v>
+      </c>
+      <c r="C38" s="4">
+        <v>477</v>
+      </c>
+      <c r="D38" s="4">
+        <v>418</v>
+      </c>
+      <c r="E38" s="4">
+        <v>497</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="2"/>
+        <v>45410.5</v>
+      </c>
+      <c r="H38" s="13">
+        <f t="shared" si="31"/>
+        <v>1.7542857142857144</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" si="32"/>
+        <v>1.8734939759036147</v>
+      </c>
+      <c r="J38" s="13">
+        <f t="shared" si="33"/>
+        <v>2.8703703703703702</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="shared" si="34"/>
+        <v>2.0869565217391304</v>
+      </c>
+      <c r="L38" s="20">
+        <f t="shared" si="35"/>
+        <v>307</v>
+      </c>
+      <c r="M38" s="20">
+        <f t="shared" si="36"/>
+        <v>311</v>
+      </c>
+      <c r="N38" s="20">
+        <f t="shared" si="37"/>
+        <v>389</v>
+      </c>
+      <c r="O38" s="20">
+        <f t="shared" si="38"/>
+        <v>336</v>
+      </c>
+      <c r="P38" s="21">
+        <f t="shared" si="51"/>
+        <v>-6.8571428571143471</v>
+      </c>
+      <c r="Q38" s="21">
+        <f t="shared" si="52"/>
+        <v>27.428571428457388</v>
+      </c>
+      <c r="R38" s="21">
+        <f t="shared" si="53"/>
+        <v>18.857142857064456</v>
+      </c>
+      <c r="S38" s="21">
+        <f t="shared" si="54"/>
+        <v>20.571428571343041</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45411.416666666664</v>
+      </c>
+      <c r="B39" s="4">
+        <v>495</v>
+      </c>
+      <c r="C39" s="4">
+        <v>481</v>
+      </c>
+      <c r="D39" s="4">
+        <v>440</v>
+      </c>
+      <c r="E39" s="4">
+        <v>524</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="2"/>
+        <v>45411.416666666664</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" si="31"/>
+        <v>1.8285714285714287</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="32"/>
+        <v>1.8975903614457832</v>
+      </c>
+      <c r="J39" s="13">
+        <f t="shared" si="33"/>
+        <v>3.0740740740740744</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" si="34"/>
+        <v>2.2546583850931676</v>
+      </c>
+      <c r="L39" s="20">
+        <f t="shared" si="35"/>
+        <v>320</v>
+      </c>
+      <c r="M39" s="20">
+        <f t="shared" si="36"/>
+        <v>315</v>
+      </c>
+      <c r="N39" s="20">
+        <f t="shared" si="37"/>
+        <v>416</v>
+      </c>
+      <c r="O39" s="20">
+        <f t="shared" si="38"/>
+        <v>363</v>
+      </c>
+      <c r="P39" s="21">
+        <f t="shared" si="51"/>
+        <v>14.181818181855704</v>
+      </c>
+      <c r="Q39" s="21">
+        <f t="shared" si="52"/>
+        <v>4.3636363636479087</v>
+      </c>
+      <c r="R39" s="21">
+        <f t="shared" si="53"/>
+        <v>24.000000000063498</v>
+      </c>
+      <c r="S39" s="21">
+        <f t="shared" si="54"/>
+        <v>29.454545454623386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+    </row>
+    <row r="42" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kattungar.xlsx
+++ b/kattungar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\git\cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A12560-0EB0-408A-B98C-DAAF21BADFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50598DC1-6E6E-4565-8B7D-F9F367B96DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{36296AD2-3383-4412-B526-17245D0827CA}"/>
   </bookViews>
@@ -335,9 +335,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -453,6 +453,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -460,10 +475,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$H$2:$H$41</c:f>
+              <c:f>Blad1!$H$2:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -577,6 +592,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.8285714285714287</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0914285714285716</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1085714285714285</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.137142857142857</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1714285714285713</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2685714285714287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,9 +664,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -752,6 +782,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -759,10 +804,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$I$2:$I$41</c:f>
+              <c:f>Blad1!$I$2:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -876,6 +921,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.8975903614457832</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1024096385542168</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1686746987951806</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1506024096385543</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1927710843373496</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.3132530120481927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -931,9 +991,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -1049,6 +1109,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -1056,10 +1131,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$J$2:$J$41</c:f>
+              <c:f>Blad1!$J$2:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1173,6 +1248,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3.0740740740740744</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.4629629629629628</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5185185185185182</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6296296296296298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,9 +1314,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -1342,6 +1432,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -1349,10 +1454,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$K$2:$K$41</c:f>
+              <c:f>Blad1!$K$2:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1466,6 +1571,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2.2546583850931676</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4472049689440993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5031055900621118</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5217391304347827</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.652173913043478</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.7391304347826089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,9 +1911,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -1909,6 +2029,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -1916,10 +2051,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$41</c:f>
+              <c:f>Blad1!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>175</c:v>
                 </c:pt>
@@ -2033,6 +2168,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,9 +2240,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -2208,6 +2358,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -2215,10 +2380,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$41</c:f>
+              <c:f>Blad1!$C$2:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>166</c:v>
                 </c:pt>
@@ -2332,6 +2497,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,9 +2567,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -2505,6 +2685,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -2512,10 +2707,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$41</c:f>
+              <c:f>Blad1!$D$2:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>108</c:v>
                 </c:pt>
@@ -2629,6 +2824,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,9 +2890,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -2798,6 +3008,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -2805,10 +3030,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$E$2:$E$41</c:f>
+              <c:f>Blad1!$E$2:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>161</c:v>
                 </c:pt>
@@ -2922,6 +3147,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3249,9 +3489,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -3367,6 +3607,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -3374,10 +3629,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$P$2:$P$41</c:f>
+              <c:f>Blad1!$P$2:$P$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3491,6 +3746,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>14.181818181855704</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.884892086317631</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7169812744693629</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.399997999994362</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.137931034595713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,9 +3816,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -3664,6 +3934,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -3671,10 +3956,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$Q$2:$Q$41</c:f>
+              <c:f>Blad1!$Q$2:$Q$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3788,6 +4073,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.3636363636479087</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.74100719423477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9622646730543298</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.79999766666009</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33.103448275994957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3843,9 +4143,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -3961,6 +4261,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -3968,10 +4283,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$R$2:$R$41</c:f>
+              <c:f>Blad1!$R$2:$R$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4085,6 +4400,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>24.000000000063498</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.6690647481933407</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.679245947523693</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.199997333325815</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.862068965596976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4136,9 +4466,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Blad1!$G$2:$G$41</c:f>
+              <c:f>Blad1!$G$2:$G$46</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>45388,46</c:v>
                 </c:pt>
@@ -4254,6 +4584,21 @@
                   <c:v>45411,42</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>45414,31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45415,42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45416,42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45416,83</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45417,44</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v> </c:v>
                 </c:pt>
               </c:strCache>
@@ -4261,10 +4606,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$S$2:$S$41</c:f>
+              <c:f>Blad1!$S$2:$S$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4378,6 +4723,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>29.454545454623386</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.705035971214055</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.1509438234080882</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.39999299998027</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.172413793196469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6278,13 +6638,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6316,13 +6676,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6354,13 +6714,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6708,11 +7068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33456F3-4980-430D-BFBA-60DE0169B3D8}">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P33" sqref="P33:S39"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36:S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6871,7 +7231,7 @@
         <v>167</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G39" si="2">A3</f>
+        <f t="shared" ref="G3:G44" si="2">A3</f>
         <v>45388.607638888891</v>
       </c>
       <c r="H3" s="13">
@@ -8133,35 +8493,35 @@
         <v>45397.375</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" ref="H21:H39" si="31">B21/B$2-1</f>
+        <f t="shared" ref="H21:H44" si="31">B21/B$2-1</f>
         <v>0.68571428571428572</v>
       </c>
       <c r="I21" s="13">
-        <f t="shared" ref="I21:I39" si="32">C21/C$2-1</f>
+        <f t="shared" ref="I21:I43" si="32">C21/C$2-1</f>
         <v>0.72289156626506035</v>
       </c>
       <c r="J21" s="13">
-        <f t="shared" ref="J21:J39" si="33">D21/D$2-1</f>
+        <f t="shared" ref="J21:J44" si="33">D21/D$2-1</f>
         <v>1.2129629629629628</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" ref="K21:K39" si="34">E21/E$2-1</f>
+        <f t="shared" ref="K21:K44" si="34">E21/E$2-1</f>
         <v>0.75155279503105588</v>
       </c>
       <c r="L21" s="20">
-        <f t="shared" ref="L21:L39" si="35">B21-B$2</f>
+        <f t="shared" ref="L21:L44" si="35">B21-B$2</f>
         <v>120</v>
       </c>
       <c r="M21" s="20">
-        <f t="shared" ref="M21:M39" si="36">C21-C$2</f>
+        <f t="shared" ref="M21:M43" si="36">C21-C$2</f>
         <v>120</v>
       </c>
       <c r="N21" s="20">
-        <f t="shared" ref="N21:N39" si="37">E21-D$2</f>
+        <f t="shared" ref="N21:N44" si="37">E21-D$2</f>
         <v>174</v>
       </c>
       <c r="O21" s="20">
-        <f t="shared" ref="O21:O39" si="38">E21-E$2</f>
+        <f t="shared" ref="O21:O44" si="38">E21-E$2</f>
         <v>121</v>
       </c>
       <c r="P21" s="21">
@@ -9237,51 +9597,51 @@
         <v>45409.916666666664</v>
       </c>
       <c r="H37" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="H37:H44" si="55">B37/B$2-1</f>
         <v>1.7771428571428571</v>
       </c>
       <c r="I37" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="I37:I44" si="56">C37/C$2-1</f>
         <v>1.7771084337349397</v>
       </c>
       <c r="J37" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="J37:J44" si="57">D37/D$2-1</f>
         <v>2.7685185185185186</v>
       </c>
       <c r="K37" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="K37:K44" si="58">E37/E$2-1</f>
         <v>2.012422360248447</v>
       </c>
       <c r="L37" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="L37:L44" si="59">B37-B$2</f>
         <v>311</v>
       </c>
       <c r="M37" s="20">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="M37:M44" si="60">C37-C$2</f>
         <v>295</v>
       </c>
       <c r="N37" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="N37:N44" si="61">E37-D$2</f>
         <v>377</v>
       </c>
       <c r="O37" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="O37:O44" si="62">E37-E$2</f>
         <v>324</v>
       </c>
       <c r="P37" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="P37:P44" si="63">(B37-B36)/(G37-G36)</f>
         <v>21.230769230864293</v>
       </c>
       <c r="Q37" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="Q37:Q44" si="64">(C37-C36)/($G37-$G36)</f>
         <v>7.3846153846484492</v>
       </c>
       <c r="R37" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="R37:R44" si="65">(D37-D36)/($G37-$G36)</f>
         <v>8.3076923077295053</v>
       </c>
       <c r="S37" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="S37:S44" si="66">(E37-E36)/($G37-$G36)</f>
         <v>-1.8461538461621123</v>
       </c>
     </row>
@@ -9306,51 +9666,51 @@
         <v>45410.5</v>
       </c>
       <c r="H38" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="55"/>
         <v>1.7542857142857144</v>
       </c>
       <c r="I38" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="56"/>
         <v>1.8734939759036147</v>
       </c>
       <c r="J38" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="57"/>
         <v>2.8703703703703702</v>
       </c>
       <c r="K38" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="58"/>
         <v>2.0869565217391304</v>
       </c>
       <c r="L38" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="59"/>
         <v>307</v>
       </c>
       <c r="M38" s="20">
-        <f t="shared" si="36"/>
+        <f t="shared" si="60"/>
         <v>311</v>
       </c>
       <c r="N38" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>389</v>
       </c>
       <c r="O38" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="62"/>
         <v>336</v>
       </c>
       <c r="P38" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>-6.8571428571143471</v>
       </c>
       <c r="Q38" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>27.428571428457388</v>
       </c>
       <c r="R38" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>18.857142857064456</v>
       </c>
       <c r="S38" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>20.571428571343041</v>
       </c>
     </row>
@@ -9375,85 +9735,433 @@
         <v>45411.416666666664</v>
       </c>
       <c r="H39" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="55"/>
         <v>1.8285714285714287</v>
       </c>
       <c r="I39" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="56"/>
         <v>1.8975903614457832</v>
       </c>
       <c r="J39" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="57"/>
         <v>3.0740740740740744</v>
       </c>
       <c r="K39" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="58"/>
         <v>2.2546583850931676</v>
       </c>
       <c r="L39" s="20">
-        <f t="shared" si="35"/>
+        <f t="shared" si="59"/>
         <v>320</v>
       </c>
       <c r="M39" s="20">
-        <f t="shared" si="36"/>
+        <f t="shared" si="60"/>
         <v>315</v>
       </c>
       <c r="N39" s="20">
-        <f t="shared" si="37"/>
+        <f t="shared" si="61"/>
         <v>416</v>
       </c>
       <c r="O39" s="20">
-        <f t="shared" si="38"/>
+        <f t="shared" si="62"/>
         <v>363</v>
       </c>
       <c r="P39" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>14.181818181855704</v>
       </c>
       <c r="Q39" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>4.3636363636479087</v>
       </c>
       <c r="R39" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="65"/>
         <v>24.000000000063498</v>
       </c>
       <c r="S39" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="66"/>
         <v>29.454545454623386</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
+      <c r="A40" s="1">
+        <v>45414.3125</v>
+      </c>
+      <c r="B40" s="4">
+        <v>541</v>
+      </c>
+      <c r="C40" s="4">
+        <v>515</v>
+      </c>
+      <c r="D40" s="4">
+        <v>468</v>
+      </c>
+      <c r="E40" s="4">
+        <v>555</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="2"/>
+        <v>45414.3125</v>
+      </c>
+      <c r="H40" s="13">
+        <f t="shared" si="55"/>
+        <v>2.0914285714285716</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="56"/>
+        <v>2.1024096385542168</v>
+      </c>
+      <c r="J40" s="13">
+        <f t="shared" si="57"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="K40" s="13">
+        <f t="shared" si="58"/>
+        <v>2.4472049689440993</v>
+      </c>
+      <c r="L40" s="20">
+        <f t="shared" si="59"/>
+        <v>366</v>
+      </c>
+      <c r="M40" s="20">
+        <f t="shared" si="60"/>
+        <v>349</v>
+      </c>
+      <c r="N40" s="20">
+        <f t="shared" si="61"/>
+        <v>447</v>
+      </c>
+      <c r="O40" s="20">
+        <f t="shared" si="62"/>
+        <v>394</v>
+      </c>
+      <c r="P40" s="21">
+        <f t="shared" si="63"/>
+        <v>15.884892086317631</v>
+      </c>
+      <c r="Q40" s="21">
+        <f t="shared" si="64"/>
+        <v>11.74100719423477</v>
+      </c>
+      <c r="R40" s="21">
+        <f t="shared" si="65"/>
+        <v>9.6690647481933407</v>
+      </c>
+      <c r="S40" s="21">
+        <f t="shared" si="66"/>
+        <v>10.705035971214055</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
+      <c r="A41" s="1">
+        <v>45415.416666608799</v>
+      </c>
+      <c r="B41" s="4">
+        <v>544</v>
+      </c>
+      <c r="C41" s="4">
+        <v>526</v>
+      </c>
+      <c r="D41" s="4">
+        <v>482</v>
+      </c>
+      <c r="E41" s="4">
+        <v>564</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>45415.416666608799</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="55"/>
+        <v>2.1085714285714285</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="56"/>
+        <v>2.1686746987951806</v>
+      </c>
+      <c r="J41" s="13">
+        <f t="shared" si="57"/>
+        <v>3.4629629629629628</v>
+      </c>
+      <c r="K41" s="13">
+        <f t="shared" si="58"/>
+        <v>2.5031055900621118</v>
+      </c>
+      <c r="L41" s="20">
+        <f t="shared" si="59"/>
+        <v>369</v>
+      </c>
+      <c r="M41" s="20">
+        <f t="shared" si="60"/>
+        <v>360</v>
+      </c>
+      <c r="N41" s="20">
+        <f t="shared" si="61"/>
+        <v>456</v>
+      </c>
+      <c r="O41" s="20">
+        <f t="shared" si="62"/>
+        <v>403</v>
+      </c>
+      <c r="P41" s="21">
+        <f t="shared" si="63"/>
+        <v>2.7169812744693629</v>
+      </c>
+      <c r="Q41" s="21">
+        <f t="shared" si="64"/>
+        <v>9.9622646730543298</v>
+      </c>
+      <c r="R41" s="21">
+        <f t="shared" si="65"/>
+        <v>12.679245947523693</v>
+      </c>
+      <c r="S41" s="21">
+        <f t="shared" si="66"/>
+        <v>8.1509438234080882</v>
+      </c>
     </row>
-    <row r="42" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45416.416666608799</v>
+      </c>
+      <c r="B42" s="4">
+        <v>549</v>
+      </c>
+      <c r="C42" s="4">
+        <v>523</v>
+      </c>
+      <c r="D42" s="4">
+        <v>480</v>
+      </c>
+      <c r="E42" s="4">
+        <v>567</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>45416.416666608799</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="55"/>
+        <v>2.137142857142857</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="56"/>
+        <v>2.1506024096385543</v>
+      </c>
+      <c r="J42" s="13">
+        <f t="shared" si="57"/>
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="K42" s="13">
+        <f t="shared" si="58"/>
+        <v>2.5217391304347827</v>
+      </c>
+      <c r="L42" s="20">
+        <f t="shared" si="59"/>
+        <v>374</v>
+      </c>
+      <c r="M42" s="20">
+        <f t="shared" si="60"/>
+        <v>357</v>
+      </c>
+      <c r="N42" s="20">
+        <f t="shared" si="61"/>
+        <v>459</v>
+      </c>
+      <c r="O42" s="20">
+        <f t="shared" si="62"/>
+        <v>406</v>
+      </c>
+      <c r="P42" s="21">
+        <f t="shared" si="63"/>
+        <v>5</v>
+      </c>
+      <c r="Q42" s="21">
+        <f t="shared" si="64"/>
+        <v>-3</v>
+      </c>
+      <c r="R42" s="21">
+        <f t="shared" si="65"/>
+        <v>-2</v>
+      </c>
+      <c r="S42" s="21">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45416.833333333336</v>
+      </c>
+      <c r="B43" s="4">
+        <v>555</v>
+      </c>
+      <c r="C43" s="4">
+        <v>530</v>
+      </c>
+      <c r="D43" s="4">
+        <v>488</v>
+      </c>
+      <c r="E43" s="4">
+        <v>588</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="2"/>
+        <v>45416.833333333336</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="55"/>
+        <v>2.1714285714285713</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="56"/>
+        <v>2.1927710843373496</v>
+      </c>
+      <c r="J43" s="13">
+        <f t="shared" si="57"/>
+        <v>3.5185185185185182</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="58"/>
+        <v>2.652173913043478</v>
+      </c>
+      <c r="L43" s="20">
+        <f t="shared" si="59"/>
+        <v>380</v>
+      </c>
+      <c r="M43" s="20">
+        <f t="shared" si="60"/>
+        <v>364</v>
+      </c>
+      <c r="N43" s="20">
+        <f t="shared" si="61"/>
+        <v>480</v>
+      </c>
+      <c r="O43" s="20">
+        <f t="shared" si="62"/>
+        <v>427</v>
+      </c>
+      <c r="P43" s="21">
+        <f t="shared" si="63"/>
+        <v>14.399997999994362</v>
+      </c>
+      <c r="Q43" s="21">
+        <f t="shared" si="64"/>
+        <v>16.79999766666009</v>
+      </c>
+      <c r="R43" s="21">
+        <f t="shared" si="65"/>
+        <v>19.199997333325815</v>
+      </c>
+      <c r="S43" s="21">
+        <f t="shared" si="66"/>
+        <v>50.39999299998027</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45417.4375</v>
+      </c>
+      <c r="B44" s="4">
+        <v>572</v>
+      </c>
+      <c r="C44" s="4">
+        <v>550</v>
+      </c>
+      <c r="D44" s="4">
+        <v>500</v>
+      </c>
+      <c r="E44" s="4">
+        <v>602</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="2"/>
+        <v>45417.4375</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="55"/>
+        <v>2.2685714285714287</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="56"/>
+        <v>2.3132530120481927</v>
+      </c>
+      <c r="J44" s="13">
+        <f t="shared" si="57"/>
+        <v>3.6296296296296298</v>
+      </c>
+      <c r="K44" s="13">
+        <f t="shared" si="58"/>
+        <v>2.7391304347826089</v>
+      </c>
+      <c r="L44" s="20">
+        <f t="shared" si="59"/>
+        <v>397</v>
+      </c>
+      <c r="M44" s="20">
+        <f t="shared" si="60"/>
+        <v>384</v>
+      </c>
+      <c r="N44" s="20">
+        <f t="shared" si="61"/>
+        <v>494</v>
+      </c>
+      <c r="O44" s="20">
+        <f t="shared" si="62"/>
+        <v>441</v>
+      </c>
+      <c r="P44" s="21">
+        <f t="shared" si="63"/>
+        <v>28.137931034595713</v>
+      </c>
+      <c r="Q44" s="21">
+        <f t="shared" si="64"/>
+        <v>33.103448275994957</v>
+      </c>
+      <c r="R44" s="21">
+        <f t="shared" si="65"/>
+        <v>19.862068965596976</v>
+      </c>
+      <c r="S44" s="21">
+        <f t="shared" si="66"/>
+        <v>23.172413793196469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45418.416666608799</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+    </row>
+    <row r="47" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
